--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>250200</v>
+        <v>248500</v>
       </c>
       <c r="E8" s="3">
-        <v>291700</v>
+        <v>289700</v>
       </c>
       <c r="F8" s="3">
-        <v>290600</v>
+        <v>288600</v>
       </c>
       <c r="G8" s="3">
-        <v>280100</v>
+        <v>278200</v>
       </c>
       <c r="H8" s="3">
-        <v>161900</v>
+        <v>160800</v>
       </c>
       <c r="I8" s="3">
-        <v>226900</v>
+        <v>225300</v>
       </c>
       <c r="J8" s="3">
-        <v>238600</v>
+        <v>236900</v>
       </c>
       <c r="K8" s="3">
         <v>221800</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>109100</v>
+        <v>108400</v>
       </c>
       <c r="E9" s="3">
-        <v>122900</v>
+        <v>122000</v>
       </c>
       <c r="F9" s="3">
-        <v>114500</v>
+        <v>113800</v>
       </c>
       <c r="G9" s="3">
-        <v>101300</v>
+        <v>100600</v>
       </c>
       <c r="H9" s="3">
-        <v>89300</v>
+        <v>88700</v>
       </c>
       <c r="I9" s="3">
-        <v>108900</v>
+        <v>108100</v>
       </c>
       <c r="J9" s="3">
-        <v>117700</v>
+        <v>116900</v>
       </c>
       <c r="K9" s="3">
         <v>111800</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>141100</v>
+        <v>140100</v>
       </c>
       <c r="E10" s="3">
-        <v>168800</v>
+        <v>167600</v>
       </c>
       <c r="F10" s="3">
-        <v>176100</v>
+        <v>174900</v>
       </c>
       <c r="G10" s="3">
-        <v>178800</v>
+        <v>177600</v>
       </c>
       <c r="H10" s="3">
-        <v>72600</v>
+        <v>72100</v>
       </c>
       <c r="I10" s="3">
-        <v>118000</v>
+        <v>117200</v>
       </c>
       <c r="J10" s="3">
-        <v>120800</v>
+        <v>120000</v>
       </c>
       <c r="K10" s="3">
         <v>109900</v>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
         <v>3700</v>
@@ -833,7 +833,7 @@
         <v>1400</v>
       </c>
       <c r="I12" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="3">
         <v>2200</v>
@@ -876,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>288800</v>
+        <v>286900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -905,25 +905,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>53600</v>
+        <v>53200</v>
       </c>
       <c r="E15" s="3">
-        <v>55800</v>
+        <v>55400</v>
       </c>
       <c r="F15" s="3">
-        <v>59600</v>
+        <v>59200</v>
       </c>
       <c r="G15" s="3">
-        <v>55900</v>
+        <v>55500</v>
       </c>
       <c r="H15" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="I15" s="3">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="J15" s="3">
-        <v>56700</v>
+        <v>56300</v>
       </c>
       <c r="K15" s="3">
         <v>51400</v>
@@ -944,25 +944,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>467500</v>
+        <v>464300</v>
       </c>
       <c r="E17" s="3">
-        <v>193800</v>
+        <v>192500</v>
       </c>
       <c r="F17" s="3">
-        <v>186400</v>
+        <v>185100</v>
       </c>
       <c r="G17" s="3">
-        <v>167300</v>
+        <v>166100</v>
       </c>
       <c r="H17" s="3">
-        <v>146300</v>
+        <v>145300</v>
       </c>
       <c r="I17" s="3">
-        <v>167600</v>
+        <v>166500</v>
       </c>
       <c r="J17" s="3">
-        <v>185200</v>
+        <v>183900</v>
       </c>
       <c r="K17" s="3">
         <v>173700</v>
@@ -973,25 +973,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-217300</v>
+        <v>-215800</v>
       </c>
       <c r="E18" s="3">
-        <v>97900</v>
+        <v>97200</v>
       </c>
       <c r="F18" s="3">
-        <v>104300</v>
+        <v>103600</v>
       </c>
       <c r="G18" s="3">
-        <v>112900</v>
+        <v>112100</v>
       </c>
       <c r="H18" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="I18" s="3">
-        <v>59300</v>
+        <v>58800</v>
       </c>
       <c r="J18" s="3">
-        <v>53400</v>
+        <v>53000</v>
       </c>
       <c r="K18" s="3">
         <v>48100</v>
@@ -1021,7 +1021,7 @@
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
         <v>-2700</v>
@@ -1044,25 +1044,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167900</v>
+        <v>-166700</v>
       </c>
       <c r="E21" s="3">
-        <v>152100</v>
+        <v>151100</v>
       </c>
       <c r="F21" s="3">
-        <v>169700</v>
+        <v>168500</v>
       </c>
       <c r="G21" s="3">
-        <v>167500</v>
+        <v>166400</v>
       </c>
       <c r="H21" s="3">
-        <v>42600</v>
+        <v>42300</v>
       </c>
       <c r="I21" s="3">
-        <v>97300</v>
+        <v>96700</v>
       </c>
       <c r="J21" s="3">
-        <v>112900</v>
+        <v>112100</v>
       </c>
       <c r="K21" s="3">
         <v>99400</v>
@@ -1102,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-221500</v>
+        <v>-220000</v>
       </c>
       <c r="E23" s="3">
-        <v>96300</v>
+        <v>95700</v>
       </c>
       <c r="F23" s="3">
-        <v>110000</v>
+        <v>109300</v>
       </c>
       <c r="G23" s="3">
-        <v>110200</v>
+        <v>109400</v>
       </c>
       <c r="H23" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="I23" s="3">
-        <v>51900</v>
+        <v>51600</v>
       </c>
       <c r="J23" s="3">
-        <v>56200</v>
+        <v>55800</v>
       </c>
       <c r="K23" s="3">
         <v>48000</v>
@@ -1134,19 +1134,19 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="F24" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G24" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="H24" s="3">
         <v>-7300</v>
       </c>
       <c r="I24" s="3">
-        <v>67700</v>
+        <v>67300</v>
       </c>
       <c r="J24" s="3">
         <v>7400</v>
@@ -1189,25 +1189,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-221200</v>
+        <v>-219700</v>
       </c>
       <c r="E26" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="F26" s="3">
-        <v>98600</v>
+        <v>98000</v>
       </c>
       <c r="G26" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="H26" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I26" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="J26" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K26" s="3">
         <v>22700</v>
@@ -1218,25 +1218,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-221200</v>
+        <v>-219700</v>
       </c>
       <c r="E27" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="F27" s="3">
-        <v>98600</v>
+        <v>98000</v>
       </c>
       <c r="G27" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="H27" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I27" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="J27" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K27" s="3">
         <v>22700</v>
@@ -1369,7 +1369,7 @@
         <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
         <v>2700</v>
@@ -1392,25 +1392,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-221200</v>
+        <v>-219700</v>
       </c>
       <c r="E33" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="F33" s="3">
-        <v>98600</v>
+        <v>98000</v>
       </c>
       <c r="G33" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="H33" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I33" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="J33" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K33" s="3">
         <v>22700</v>
@@ -1450,25 +1450,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-221200</v>
+        <v>-219700</v>
       </c>
       <c r="E35" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="F35" s="3">
-        <v>98600</v>
+        <v>98000</v>
       </c>
       <c r="G35" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="H35" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I35" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="J35" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K35" s="3">
         <v>22700</v>
@@ -1539,25 +1539,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300000</v>
+        <v>297900</v>
       </c>
       <c r="E41" s="3">
-        <v>305500</v>
+        <v>303400</v>
       </c>
       <c r="F41" s="3">
-        <v>282800</v>
+        <v>280900</v>
       </c>
       <c r="G41" s="3">
-        <v>351600</v>
+        <v>349100</v>
       </c>
       <c r="H41" s="3">
-        <v>258200</v>
+        <v>256400</v>
       </c>
       <c r="I41" s="3">
-        <v>275400</v>
+        <v>273500</v>
       </c>
       <c r="J41" s="3">
-        <v>234500</v>
+        <v>232900</v>
       </c>
       <c r="K41" s="3">
         <v>238100</v>
@@ -1568,25 +1568,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28700</v>
+        <v>28500</v>
       </c>
       <c r="E42" s="3">
-        <v>34200</v>
+        <v>34000</v>
       </c>
       <c r="F42" s="3">
-        <v>56000</v>
+        <v>55700</v>
       </c>
       <c r="G42" s="3">
-        <v>51300</v>
+        <v>51000</v>
       </c>
       <c r="H42" s="3">
-        <v>38700</v>
+        <v>38500</v>
       </c>
       <c r="I42" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="J42" s="3">
-        <v>29200</v>
+        <v>29000</v>
       </c>
       <c r="K42" s="3">
         <v>21700</v>
@@ -1597,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40900</v>
+        <v>40600</v>
       </c>
       <c r="E43" s="3">
-        <v>42200</v>
+        <v>41900</v>
       </c>
       <c r="F43" s="3">
-        <v>44500</v>
+        <v>44200</v>
       </c>
       <c r="G43" s="3">
-        <v>53400</v>
+        <v>53000</v>
       </c>
       <c r="H43" s="3">
-        <v>47200</v>
+        <v>46900</v>
       </c>
       <c r="I43" s="3">
-        <v>63400</v>
+        <v>62900</v>
       </c>
       <c r="J43" s="3">
-        <v>53900</v>
+        <v>53500</v>
       </c>
       <c r="K43" s="3">
         <v>45400</v>
@@ -1626,25 +1626,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>222400</v>
+        <v>220900</v>
       </c>
       <c r="E44" s="3">
-        <v>201000</v>
+        <v>199600</v>
       </c>
       <c r="F44" s="3">
-        <v>190500</v>
+        <v>189200</v>
       </c>
       <c r="G44" s="3">
-        <v>174600</v>
+        <v>173400</v>
       </c>
       <c r="H44" s="3">
-        <v>161900</v>
+        <v>160800</v>
       </c>
       <c r="I44" s="3">
-        <v>169300</v>
+        <v>168100</v>
       </c>
       <c r="J44" s="3">
-        <v>162800</v>
+        <v>161600</v>
       </c>
       <c r="K44" s="3">
         <v>158800</v>
@@ -1655,25 +1655,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="E45" s="3">
-        <v>56800</v>
+        <v>56400</v>
       </c>
       <c r="F45" s="3">
-        <v>33300</v>
+        <v>33100</v>
       </c>
       <c r="G45" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="H45" s="3">
-        <v>18200</v>
+        <v>18100</v>
       </c>
       <c r="I45" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="K45" s="3">
         <v>20300</v>
@@ -1684,25 +1684,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>633600</v>
+        <v>629300</v>
       </c>
       <c r="E46" s="3">
-        <v>639800</v>
+        <v>635400</v>
       </c>
       <c r="F46" s="3">
-        <v>607200</v>
+        <v>603000</v>
       </c>
       <c r="G46" s="3">
-        <v>655500</v>
+        <v>651000</v>
       </c>
       <c r="H46" s="3">
-        <v>524200</v>
+        <v>520600</v>
       </c>
       <c r="I46" s="3">
-        <v>548400</v>
+        <v>544700</v>
       </c>
       <c r="J46" s="3">
-        <v>505700</v>
+        <v>502300</v>
       </c>
       <c r="K46" s="3">
         <v>484200</v>
@@ -1742,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3798500</v>
+        <v>3772500</v>
       </c>
       <c r="E48" s="3">
-        <v>4008400</v>
+        <v>3980900</v>
       </c>
       <c r="F48" s="3">
-        <v>3977700</v>
+        <v>3950400</v>
       </c>
       <c r="G48" s="3">
-        <v>3899400</v>
+        <v>3872600</v>
       </c>
       <c r="H48" s="3">
-        <v>3884900</v>
+        <v>3858200</v>
       </c>
       <c r="I48" s="3">
-        <v>3860200</v>
+        <v>3833800</v>
       </c>
       <c r="J48" s="3">
-        <v>3762400</v>
+        <v>3736600</v>
       </c>
       <c r="K48" s="3">
         <v>3695000</v>
@@ -1858,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74800</v>
+        <v>74300</v>
       </c>
       <c r="E52" s="3">
-        <v>77500</v>
+        <v>76900</v>
       </c>
       <c r="F52" s="3">
-        <v>79300</v>
+        <v>78700</v>
       </c>
       <c r="G52" s="3">
-        <v>83900</v>
+        <v>83300</v>
       </c>
       <c r="H52" s="3">
-        <v>86100</v>
+        <v>85500</v>
       </c>
       <c r="I52" s="3">
-        <v>85300</v>
+        <v>84700</v>
       </c>
       <c r="J52" s="3">
-        <v>88200</v>
+        <v>87600</v>
       </c>
       <c r="K52" s="3">
         <v>93200</v>
@@ -1916,25 +1916,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4506900</v>
+        <v>4476000</v>
       </c>
       <c r="E54" s="3">
-        <v>4725600</v>
+        <v>4693200</v>
       </c>
       <c r="F54" s="3">
-        <v>4664200</v>
+        <v>4632200</v>
       </c>
       <c r="G54" s="3">
-        <v>4638800</v>
+        <v>4607000</v>
       </c>
       <c r="H54" s="3">
-        <v>4495100</v>
+        <v>4464300</v>
       </c>
       <c r="I54" s="3">
-        <v>4494000</v>
+        <v>4463100</v>
       </c>
       <c r="J54" s="3">
-        <v>4356400</v>
+        <v>4326500</v>
       </c>
       <c r="K54" s="3">
         <v>4272500</v>
@@ -1971,25 +1971,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>172600</v>
+        <v>171500</v>
       </c>
       <c r="E57" s="3">
-        <v>149200</v>
+        <v>148100</v>
       </c>
       <c r="F57" s="3">
-        <v>151000</v>
+        <v>149900</v>
       </c>
       <c r="G57" s="3">
-        <v>128300</v>
+        <v>127400</v>
       </c>
       <c r="H57" s="3">
-        <v>112500</v>
+        <v>111700</v>
       </c>
       <c r="I57" s="3">
-        <v>132600</v>
+        <v>131700</v>
       </c>
       <c r="J57" s="3">
-        <v>151700</v>
+        <v>150700</v>
       </c>
       <c r="K57" s="3">
         <v>122200</v>
@@ -2009,7 +2009,7 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>128900</v>
+        <v>128000</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -2029,25 +2029,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="E59" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="F59" s="3">
-        <v>36800</v>
+        <v>36600</v>
       </c>
       <c r="G59" s="3">
-        <v>34800</v>
+        <v>34500</v>
       </c>
       <c r="H59" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="I59" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="J59" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K59" s="3">
         <v>34600</v>
@@ -2058,25 +2058,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192100</v>
+        <v>190800</v>
       </c>
       <c r="E60" s="3">
-        <v>174400</v>
+        <v>173200</v>
       </c>
       <c r="F60" s="3">
-        <v>188400</v>
+        <v>187100</v>
       </c>
       <c r="G60" s="3">
-        <v>291900</v>
+        <v>289900</v>
       </c>
       <c r="H60" s="3">
-        <v>137600</v>
+        <v>136700</v>
       </c>
       <c r="I60" s="3">
-        <v>159300</v>
+        <v>158200</v>
       </c>
       <c r="J60" s="3">
-        <v>163300</v>
+        <v>162200</v>
       </c>
       <c r="K60" s="3">
         <v>158500</v>
@@ -2099,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>128300</v>
+        <v>127400</v>
       </c>
       <c r="I61" s="3">
-        <v>128300</v>
+        <v>127400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2116,25 +2116,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>837700</v>
+        <v>831900</v>
       </c>
       <c r="E62" s="3">
-        <v>842700</v>
+        <v>836900</v>
       </c>
       <c r="F62" s="3">
-        <v>818400</v>
+        <v>812800</v>
       </c>
       <c r="G62" s="3">
-        <v>794600</v>
+        <v>789100</v>
       </c>
       <c r="H62" s="3">
-        <v>783900</v>
+        <v>778500</v>
       </c>
       <c r="I62" s="3">
-        <v>797400</v>
+        <v>791900</v>
       </c>
       <c r="J62" s="3">
-        <v>736100</v>
+        <v>731000</v>
       </c>
       <c r="K62" s="3">
         <v>705600</v>
@@ -2232,25 +2232,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1029800</v>
+        <v>1022700</v>
       </c>
       <c r="E66" s="3">
-        <v>1017100</v>
+        <v>1010100</v>
       </c>
       <c r="F66" s="3">
-        <v>1006800</v>
+        <v>999900</v>
       </c>
       <c r="G66" s="3">
-        <v>1086500</v>
+        <v>1079000</v>
       </c>
       <c r="H66" s="3">
-        <v>1049800</v>
+        <v>1042600</v>
       </c>
       <c r="I66" s="3">
-        <v>1085000</v>
+        <v>1077500</v>
       </c>
       <c r="J66" s="3">
-        <v>899400</v>
+        <v>893200</v>
       </c>
       <c r="K66" s="3">
         <v>864100</v>
@@ -2390,25 +2390,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1393700</v>
+        <v>-1384100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1163300</v>
+        <v>-1155300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1228900</v>
+        <v>-1220400</v>
       </c>
       <c r="G72" s="3">
-        <v>-1325100</v>
+        <v>-1316000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1405300</v>
+        <v>-1395700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1415900</v>
+        <v>-1406100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1396100</v>
+        <v>-1386500</v>
       </c>
       <c r="K72" s="3">
         <v>-1441400</v>
@@ -2506,25 +2506,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3477100</v>
+        <v>3453300</v>
       </c>
       <c r="E76" s="3">
-        <v>3708500</v>
+        <v>3683100</v>
       </c>
       <c r="F76" s="3">
-        <v>3657300</v>
+        <v>3632200</v>
       </c>
       <c r="G76" s="3">
-        <v>3552300</v>
+        <v>3527900</v>
       </c>
       <c r="H76" s="3">
-        <v>3445300</v>
+        <v>3421700</v>
       </c>
       <c r="I76" s="3">
-        <v>3409000</v>
+        <v>3385600</v>
       </c>
       <c r="J76" s="3">
-        <v>3457000</v>
+        <v>3433300</v>
       </c>
       <c r="K76" s="3">
         <v>3408400</v>
@@ -2598,25 +2598,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-221200</v>
+        <v>-219700</v>
       </c>
       <c r="E81" s="3">
-        <v>65700</v>
+        <v>65200</v>
       </c>
       <c r="F81" s="3">
-        <v>98600</v>
+        <v>98000</v>
       </c>
       <c r="G81" s="3">
-        <v>87100</v>
+        <v>86500</v>
       </c>
       <c r="H81" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I81" s="3">
-        <v>-15800</v>
+        <v>-15700</v>
       </c>
       <c r="J81" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="K81" s="3">
         <v>22700</v>
@@ -2640,25 +2640,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53600</v>
+        <v>53200</v>
       </c>
       <c r="E83" s="3">
-        <v>55800</v>
+        <v>55400</v>
       </c>
       <c r="F83" s="3">
-        <v>59600</v>
+        <v>59200</v>
       </c>
       <c r="G83" s="3">
-        <v>57300</v>
+        <v>56900</v>
       </c>
       <c r="H83" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="I83" s="3">
-        <v>45400</v>
+        <v>45100</v>
       </c>
       <c r="J83" s="3">
-        <v>56700</v>
+        <v>56300</v>
       </c>
       <c r="K83" s="3">
         <v>51400</v>
@@ -2814,25 +2814,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>111200</v>
+        <v>110400</v>
       </c>
       <c r="E89" s="3">
-        <v>127400</v>
+        <v>126500</v>
       </c>
       <c r="F89" s="3">
-        <v>168500</v>
+        <v>167400</v>
       </c>
       <c r="G89" s="3">
-        <v>167800</v>
+        <v>166600</v>
       </c>
       <c r="H89" s="3">
-        <v>63600</v>
+        <v>63200</v>
       </c>
       <c r="I89" s="3">
-        <v>72600</v>
+        <v>72100</v>
       </c>
       <c r="J89" s="3">
-        <v>99800</v>
+        <v>99100</v>
       </c>
       <c r="K89" s="3">
         <v>87100</v>
@@ -2856,10 +2856,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107100</v>
+        <v>-106400</v>
       </c>
       <c r="E91" s="3">
-        <v>-93100</v>
+        <v>-92500</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-70300</v>
+        <v>-69800</v>
       </c>
       <c r="J91" s="3">
-        <v>-93500</v>
+        <v>-92900</v>
       </c>
       <c r="K91" s="3">
         <v>-85000</v>
@@ -2943,25 +2943,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106500</v>
+        <v>-105700</v>
       </c>
       <c r="E94" s="3">
-        <v>-92100</v>
+        <v>-91500</v>
       </c>
       <c r="F94" s="3">
-        <v>-109500</v>
+        <v>-108800</v>
       </c>
       <c r="G94" s="3">
-        <v>-68900</v>
+        <v>-68400</v>
       </c>
       <c r="H94" s="3">
-        <v>-73000</v>
+        <v>-72500</v>
       </c>
       <c r="I94" s="3">
-        <v>-151500</v>
+        <v>-150400</v>
       </c>
       <c r="J94" s="3">
-        <v>-96600</v>
+        <v>-95900</v>
       </c>
       <c r="K94" s="3">
         <v>-85700</v>
@@ -2991,16 +2991,16 @@
         <v>-11000</v>
       </c>
       <c r="F96" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="G96" s="3">
         <v>-6900</v>
       </c>
       <c r="H96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-7200</v>
       </c>
       <c r="J96" s="3">
         <v>-5000</v>
@@ -3101,22 +3101,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10900</v>
+        <v>-10800</v>
       </c>
       <c r="E100" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="F100" s="3">
-        <v>-128000</v>
+        <v>-127100</v>
       </c>
       <c r="G100" s="3">
         <v>-5600</v>
       </c>
       <c r="H100" s="3">
-        <v>-8500</v>
+        <v>-8400</v>
       </c>
       <c r="I100" s="3">
-        <v>122100</v>
+        <v>121300</v>
       </c>
       <c r="J100" s="3">
         <v>-7400</v>
@@ -3162,19 +3162,19 @@
         <v>-5500</v>
       </c>
       <c r="E102" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="F102" s="3">
-        <v>-68700</v>
+        <v>-68300</v>
       </c>
       <c r="G102" s="3">
-        <v>93400</v>
+        <v>92700</v>
       </c>
       <c r="H102" s="3">
-        <v>-17200</v>
+        <v>-17100</v>
       </c>
       <c r="I102" s="3">
-        <v>40900</v>
+        <v>40600</v>
       </c>
       <c r="J102" s="3">
         <v>-3600</v>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>248500</v>
+        <v>258800</v>
       </c>
       <c r="E8" s="3">
-        <v>289700</v>
+        <v>252300</v>
       </c>
       <c r="F8" s="3">
-        <v>288600</v>
+        <v>248600</v>
       </c>
       <c r="G8" s="3">
-        <v>278200</v>
+        <v>289800</v>
       </c>
       <c r="H8" s="3">
+        <v>288800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>278300</v>
+      </c>
+      <c r="J8" s="3">
         <v>160800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>225300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>236900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>111000</v>
+      </c>
+      <c r="F9" s="3">
         <v>108400</v>
       </c>
-      <c r="E9" s="3">
-        <v>122000</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>122100</v>
+      </c>
+      <c r="H9" s="3">
         <v>113800</v>
       </c>
-      <c r="G9" s="3">
-        <v>100600</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J9" s="3">
         <v>88700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>108100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>116900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>140100</v>
+        <v>137500</v>
       </c>
       <c r="E10" s="3">
-        <v>167600</v>
+        <v>141300</v>
       </c>
       <c r="F10" s="3">
-        <v>174900</v>
+        <v>140200</v>
       </c>
       <c r="G10" s="3">
+        <v>167700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>175000</v>
+      </c>
+      <c r="I10" s="3">
         <v>177600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>72100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>117200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>120000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,66 +903,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>286900</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>287000</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>8300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>53200</v>
+        <v>55000</v>
       </c>
       <c r="E15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>53300</v>
+      </c>
+      <c r="G15" s="3">
         <v>55400</v>
       </c>
-      <c r="F15" s="3">
-        <v>59200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>55500</v>
-      </c>
       <c r="H15" s="3">
-        <v>34600</v>
+        <v>59300</v>
       </c>
       <c r="I15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K15" s="3">
         <v>45100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>56300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>464300</v>
+        <v>195400</v>
       </c>
       <c r="E17" s="3">
+        <v>179300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>464500</v>
+      </c>
+      <c r="G17" s="3">
         <v>192500</v>
       </c>
-      <c r="F17" s="3">
-        <v>185100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>166100</v>
-      </c>
       <c r="H17" s="3">
-        <v>145300</v>
+        <v>185200</v>
       </c>
       <c r="I17" s="3">
+        <v>166200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K17" s="3">
         <v>166500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>183900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-215800</v>
+        <v>63500</v>
       </c>
       <c r="E18" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-215900</v>
+      </c>
+      <c r="G18" s="3">
         <v>97200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>103600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>112100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>58800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>53000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1074,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-166700</v>
+        <v>110600</v>
       </c>
       <c r="E21" s="3">
+        <v>125800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-166800</v>
+      </c>
+      <c r="G21" s="3">
         <v>151100</v>
       </c>
-      <c r="F21" s="3">
-        <v>168500</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>168600</v>
+      </c>
+      <c r="I21" s="3">
         <v>166400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>42300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>96700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>112100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1175,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-220000</v>
+        <v>55600</v>
       </c>
       <c r="E23" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-220100</v>
+      </c>
+      <c r="G23" s="3">
         <v>95700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>109300</v>
       </c>
-      <c r="G23" s="3">
-        <v>109400</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>109500</v>
+      </c>
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>51600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>55800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>30400</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="H24" s="3">
         <v>11300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>22900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>67300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-219700</v>
+        <v>37600</v>
       </c>
       <c r="E26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G26" s="3">
         <v>65200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>98000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>86500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>48400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-219700</v>
+        <v>37600</v>
       </c>
       <c r="E27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G27" s="3">
         <v>65200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>98000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>86500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>48400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-219700</v>
+        <v>37600</v>
       </c>
       <c r="E33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G33" s="3">
         <v>65200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>98000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>86500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>48400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-219700</v>
+        <v>37600</v>
       </c>
       <c r="E35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G35" s="3">
         <v>65200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>98000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>86500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>48400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,182 +1704,220 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>297900</v>
+        <v>219800</v>
       </c>
       <c r="E41" s="3">
-        <v>303400</v>
+        <v>269400</v>
       </c>
       <c r="F41" s="3">
-        <v>280900</v>
+        <v>298100</v>
       </c>
       <c r="G41" s="3">
-        <v>349100</v>
+        <v>303500</v>
       </c>
       <c r="H41" s="3">
-        <v>256400</v>
+        <v>281000</v>
       </c>
       <c r="I41" s="3">
+        <v>349300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K41" s="3">
         <v>273500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>232900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F42" s="3">
         <v>28500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>34000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>55700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>51000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>38500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>19900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>29000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40600</v>
+        <v>50700</v>
       </c>
       <c r="E43" s="3">
+        <v>46400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>40700</v>
+      </c>
+      <c r="G43" s="3">
         <v>41900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>53000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>46900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>62900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>53500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>220900</v>
+        <v>253600</v>
       </c>
       <c r="E44" s="3">
-        <v>199600</v>
+        <v>236600</v>
       </c>
       <c r="F44" s="3">
+        <v>221000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>199700</v>
+      </c>
+      <c r="H44" s="3">
         <v>189200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>173400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>160800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>168100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>161600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F45" s="3">
         <v>41300</v>
       </c>
-      <c r="E45" s="3">
-        <v>56400</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>56500</v>
+      </c>
+      <c r="H45" s="3">
         <v>33100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>24600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>20300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25200</v>
       </c>
       <c r="K45" s="3">
         <v>20300</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>629300</v>
+        <v>585400</v>
       </c>
       <c r="E46" s="3">
-        <v>635400</v>
+        <v>618800</v>
       </c>
       <c r="F46" s="3">
-        <v>603000</v>
+        <v>629500</v>
       </c>
       <c r="G46" s="3">
-        <v>651000</v>
+        <v>635600</v>
       </c>
       <c r="H46" s="3">
-        <v>520600</v>
+        <v>603300</v>
       </c>
       <c r="I46" s="3">
+        <v>651300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>520800</v>
+      </c>
+      <c r="K46" s="3">
         <v>544700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>502300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1945,49 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3772500</v>
+        <v>3961200</v>
       </c>
       <c r="E48" s="3">
-        <v>3980900</v>
+        <v>3832600</v>
       </c>
       <c r="F48" s="3">
-        <v>3950400</v>
+        <v>3774000</v>
       </c>
       <c r="G48" s="3">
-        <v>3872600</v>
+        <v>3982400</v>
       </c>
       <c r="H48" s="3">
-        <v>3858200</v>
+        <v>3952000</v>
       </c>
       <c r="I48" s="3">
+        <v>3874100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3859700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3833800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3736600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>71600</v>
+      </c>
+      <c r="F52" s="3">
         <v>74300</v>
       </c>
-      <c r="E52" s="3">
-        <v>76900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>78700</v>
-      </c>
       <c r="G52" s="3">
+        <v>77000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>78800</v>
+      </c>
+      <c r="I52" s="3">
         <v>83300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>85500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>84700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>87600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2155,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4476000</v>
+        <v>4614900</v>
       </c>
       <c r="E54" s="3">
-        <v>4693200</v>
+        <v>4523000</v>
       </c>
       <c r="F54" s="3">
-        <v>4632200</v>
+        <v>4477800</v>
       </c>
       <c r="G54" s="3">
-        <v>4607000</v>
+        <v>4695000</v>
       </c>
       <c r="H54" s="3">
-        <v>4464300</v>
+        <v>4634000</v>
       </c>
       <c r="I54" s="3">
+        <v>4608800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4466000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4463100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4326500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2224,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>175300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>165400</v>
+      </c>
+      <c r="F57" s="3">
         <v>171500</v>
       </c>
-      <c r="E57" s="3">
-        <v>148100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>149900</v>
-      </c>
       <c r="G57" s="3">
+        <v>148200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>150000</v>
+      </c>
+      <c r="I57" s="3">
         <v>127400</v>
       </c>
-      <c r="H57" s="3">
-        <v>111700</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K57" s="3">
         <v>131700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>150700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,83 +2273,101 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>128000</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>128100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F59" s="3">
         <v>18900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>36600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>34500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>24300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>25700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>190800</v>
+        <v>200600</v>
       </c>
       <c r="E60" s="3">
-        <v>173200</v>
+        <v>184500</v>
       </c>
       <c r="F60" s="3">
-        <v>187100</v>
+        <v>190900</v>
       </c>
       <c r="G60" s="3">
-        <v>289900</v>
+        <v>173300</v>
       </c>
       <c r="H60" s="3">
+        <v>187200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>290000</v>
+      </c>
+      <c r="J60" s="3">
         <v>136700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>158200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>162200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2099,48 +2384,60 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>127400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>127400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>831900</v>
+        <v>928300</v>
       </c>
       <c r="E62" s="3">
-        <v>836900</v>
+        <v>869700</v>
       </c>
       <c r="F62" s="3">
-        <v>812800</v>
+        <v>832200</v>
       </c>
       <c r="G62" s="3">
-        <v>789100</v>
+        <v>837200</v>
       </c>
       <c r="H62" s="3">
-        <v>778500</v>
+        <v>813100</v>
       </c>
       <c r="I62" s="3">
+        <v>789400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>778900</v>
+      </c>
+      <c r="K62" s="3">
         <v>791900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>731000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2535,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1022700</v>
+        <v>1128900</v>
       </c>
       <c r="E66" s="3">
-        <v>1010100</v>
+        <v>1054200</v>
       </c>
       <c r="F66" s="3">
-        <v>999900</v>
+        <v>1023100</v>
       </c>
       <c r="G66" s="3">
-        <v>1079000</v>
+        <v>1010500</v>
       </c>
       <c r="H66" s="3">
-        <v>1042600</v>
+        <v>1000300</v>
       </c>
       <c r="I66" s="3">
+        <v>1079500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1077500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>893200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2725,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1384100</v>
+        <v>-1336400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1155300</v>
+        <v>-1363600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1220400</v>
+        <v>-1384700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1316000</v>
+        <v>-1155800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1395700</v>
+        <v>-1220900</v>
       </c>
       <c r="I72" s="3">
+        <v>-1316500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1396300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2865,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3453300</v>
+        <v>3486000</v>
       </c>
       <c r="E76" s="3">
-        <v>3683100</v>
+        <v>3468800</v>
       </c>
       <c r="F76" s="3">
-        <v>3632200</v>
+        <v>3454600</v>
       </c>
       <c r="G76" s="3">
-        <v>3527900</v>
+        <v>3684500</v>
       </c>
       <c r="H76" s="3">
-        <v>3421700</v>
+        <v>3633700</v>
       </c>
       <c r="I76" s="3">
+        <v>3529300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3423000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3385600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3433300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-219700</v>
+        <v>37600</v>
       </c>
       <c r="E81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G81" s="3">
         <v>65200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>98000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>86500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>48400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53200</v>
+        <v>55000</v>
       </c>
       <c r="E83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>53300</v>
+      </c>
+      <c r="G83" s="3">
         <v>55400</v>
       </c>
-      <c r="F83" s="3">
-        <v>59200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>56900</v>
-      </c>
       <c r="H83" s="3">
-        <v>34600</v>
+        <v>59300</v>
       </c>
       <c r="I83" s="3">
+        <v>57000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K83" s="3">
         <v>45100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>56300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>110400</v>
+        <v>112300</v>
       </c>
       <c r="E89" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>110500</v>
+      </c>
+      <c r="G89" s="3">
         <v>126500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>167400</v>
       </c>
-      <c r="G89" s="3">
-        <v>166600</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>166700</v>
+      </c>
+      <c r="J89" s="3">
         <v>63200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>72100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>99100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-106400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-92500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-69800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-92900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-105700</v>
+        <v>-141800</v>
       </c>
       <c r="E94" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-91500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-108800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-68400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-72500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-150400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-95900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2988,28 +3455,34 @@
         <v>-11000</v>
       </c>
       <c r="E96" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-9400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-6900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-7000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-7100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-5000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
-        <v>-127100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-8400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>121300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2300</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
       </c>
       <c r="K101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>600</v>
+      </c>
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
-        <v>22500</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-68300</v>
       </c>
-      <c r="G102" s="3">
-        <v>92700</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>92800</v>
+      </c>
+      <c r="J102" s="3">
         <v>-17100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>40600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>258800</v>
+        <v>240700</v>
       </c>
       <c r="E8" s="3">
-        <v>252300</v>
+        <v>264900</v>
       </c>
       <c r="F8" s="3">
-        <v>248600</v>
+        <v>258300</v>
       </c>
       <c r="G8" s="3">
-        <v>289800</v>
+        <v>254500</v>
       </c>
       <c r="H8" s="3">
-        <v>288800</v>
+        <v>296600</v>
       </c>
       <c r="I8" s="3">
-        <v>278300</v>
+        <v>295600</v>
       </c>
       <c r="J8" s="3">
+        <v>284900</v>
+      </c>
+      <c r="K8" s="3">
         <v>160800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>225300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>236900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>121300</v>
+        <v>127400</v>
       </c>
       <c r="E9" s="3">
+        <v>124200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>113600</v>
+      </c>
+      <c r="G9" s="3">
         <v>111000</v>
       </c>
-      <c r="F9" s="3">
-        <v>108400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>122100</v>
-      </c>
       <c r="H9" s="3">
-        <v>113800</v>
+        <v>125000</v>
       </c>
       <c r="I9" s="3">
-        <v>100700</v>
+        <v>116500</v>
       </c>
       <c r="J9" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K9" s="3">
         <v>88700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>116900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>137500</v>
+        <v>113200</v>
       </c>
       <c r="E10" s="3">
-        <v>141300</v>
+        <v>140700</v>
       </c>
       <c r="F10" s="3">
-        <v>140200</v>
+        <v>144700</v>
       </c>
       <c r="G10" s="3">
-        <v>167700</v>
+        <v>143500</v>
       </c>
       <c r="H10" s="3">
-        <v>175000</v>
+        <v>171700</v>
       </c>
       <c r="I10" s="3">
-        <v>177600</v>
+        <v>179100</v>
       </c>
       <c r="J10" s="3">
+        <v>181800</v>
+      </c>
+      <c r="K10" s="3">
         <v>72100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>120000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E12" s="3">
-        <v>4700</v>
+        <v>5600</v>
       </c>
       <c r="F12" s="3">
         <v>4800</v>
       </c>
       <c r="G12" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="H12" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="I12" s="3">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="J12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,78 +926,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>287000</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>293800</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55000</v>
+        <v>49300</v>
       </c>
       <c r="E15" s="3">
-        <v>54000</v>
+        <v>56400</v>
       </c>
       <c r="F15" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="G15" s="3">
-        <v>55400</v>
+        <v>54500</v>
       </c>
       <c r="H15" s="3">
-        <v>59300</v>
+        <v>56700</v>
       </c>
       <c r="I15" s="3">
-        <v>55600</v>
+        <v>60700</v>
       </c>
       <c r="J15" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K15" s="3">
         <v>34700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>45100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>56300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>195400</v>
+        <v>248100</v>
       </c>
       <c r="E17" s="3">
-        <v>179300</v>
+        <v>200000</v>
       </c>
       <c r="F17" s="3">
-        <v>464500</v>
+        <v>183500</v>
       </c>
       <c r="G17" s="3">
-        <v>192500</v>
+        <v>475500</v>
       </c>
       <c r="H17" s="3">
-        <v>185200</v>
+        <v>197100</v>
       </c>
       <c r="I17" s="3">
-        <v>166200</v>
+        <v>189500</v>
       </c>
       <c r="J17" s="3">
+        <v>170100</v>
+      </c>
+      <c r="K17" s="3">
         <v>145400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>183900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>63500</v>
+        <v>-7400</v>
       </c>
       <c r="E18" s="3">
-        <v>73000</v>
+        <v>65000</v>
       </c>
       <c r="F18" s="3">
-        <v>-215900</v>
+        <v>74700</v>
       </c>
       <c r="G18" s="3">
-        <v>97200</v>
+        <v>-221000</v>
       </c>
       <c r="H18" s="3">
-        <v>103600</v>
+        <v>99500</v>
       </c>
       <c r="I18" s="3">
-        <v>112100</v>
+        <v>106000</v>
       </c>
       <c r="J18" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K18" s="3">
         <v>15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7900</v>
+        <v>-11200</v>
       </c>
       <c r="E20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4200</v>
-      </c>
       <c r="G20" s="3">
-        <v>-1500</v>
+        <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>5700</v>
+        <v>-1600</v>
       </c>
       <c r="I20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>110600</v>
+        <v>30700</v>
       </c>
       <c r="E21" s="3">
-        <v>125800</v>
+        <v>113200</v>
       </c>
       <c r="F21" s="3">
-        <v>-166800</v>
+        <v>128700</v>
       </c>
       <c r="G21" s="3">
-        <v>151100</v>
+        <v>-170700</v>
       </c>
       <c r="H21" s="3">
-        <v>168600</v>
+        <v>154700</v>
       </c>
       <c r="I21" s="3">
-        <v>166400</v>
+        <v>172600</v>
       </c>
       <c r="J21" s="3">
+        <v>170400</v>
+      </c>
+      <c r="K21" s="3">
         <v>42300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55600</v>
+        <v>-18700</v>
       </c>
       <c r="E23" s="3">
-        <v>71700</v>
+        <v>56900</v>
       </c>
       <c r="F23" s="3">
-        <v>-220100</v>
+        <v>73400</v>
       </c>
       <c r="G23" s="3">
-        <v>95700</v>
+        <v>-225300</v>
       </c>
       <c r="H23" s="3">
-        <v>109300</v>
+        <v>98000</v>
       </c>
       <c r="I23" s="3">
-        <v>109500</v>
+        <v>111900</v>
       </c>
       <c r="J23" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>-7600</v>
       </c>
       <c r="E24" s="3">
-        <v>39800</v>
+        <v>18400</v>
       </c>
       <c r="F24" s="3">
+        <v>40700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>30500</v>
-      </c>
       <c r="H24" s="3">
-        <v>11300</v>
+        <v>31200</v>
       </c>
       <c r="I24" s="3">
-        <v>22900</v>
+        <v>11600</v>
       </c>
       <c r="J24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37600</v>
+        <v>-11100</v>
       </c>
       <c r="E26" s="3">
-        <v>32000</v>
+        <v>38500</v>
       </c>
       <c r="F26" s="3">
-        <v>-219800</v>
+        <v>32700</v>
       </c>
       <c r="G26" s="3">
-        <v>65200</v>
+        <v>-225000</v>
       </c>
       <c r="H26" s="3">
-        <v>98000</v>
+        <v>66800</v>
       </c>
       <c r="I26" s="3">
-        <v>86500</v>
+        <v>100300</v>
       </c>
       <c r="J26" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K26" s="3">
         <v>14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37600</v>
+        <v>-11100</v>
       </c>
       <c r="E27" s="3">
-        <v>32000</v>
+        <v>38500</v>
       </c>
       <c r="F27" s="3">
-        <v>-219800</v>
+        <v>32700</v>
       </c>
       <c r="G27" s="3">
-        <v>65200</v>
+        <v>-225000</v>
       </c>
       <c r="H27" s="3">
-        <v>98000</v>
+        <v>66800</v>
       </c>
       <c r="I27" s="3">
-        <v>86500</v>
+        <v>100300</v>
       </c>
       <c r="J27" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K27" s="3">
         <v>14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7900</v>
+        <v>11200</v>
       </c>
       <c r="E32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
-        <v>4200</v>
-      </c>
       <c r="G32" s="3">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>-5700</v>
+        <v>1600</v>
       </c>
       <c r="I32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37600</v>
+        <v>-11100</v>
       </c>
       <c r="E33" s="3">
-        <v>32000</v>
+        <v>38500</v>
       </c>
       <c r="F33" s="3">
-        <v>-219800</v>
+        <v>32700</v>
       </c>
       <c r="G33" s="3">
-        <v>65200</v>
+        <v>-225000</v>
       </c>
       <c r="H33" s="3">
-        <v>98000</v>
+        <v>66800</v>
       </c>
       <c r="I33" s="3">
-        <v>86500</v>
+        <v>100300</v>
       </c>
       <c r="J33" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K33" s="3">
         <v>14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37600</v>
+        <v>-11100</v>
       </c>
       <c r="E35" s="3">
-        <v>32000</v>
+        <v>38500</v>
       </c>
       <c r="F35" s="3">
-        <v>-219800</v>
+        <v>32700</v>
       </c>
       <c r="G35" s="3">
-        <v>65200</v>
+        <v>-225000</v>
       </c>
       <c r="H35" s="3">
-        <v>98000</v>
+        <v>66800</v>
       </c>
       <c r="I35" s="3">
-        <v>86500</v>
+        <v>100300</v>
       </c>
       <c r="J35" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K35" s="3">
         <v>14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,218 +1792,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>219800</v>
+        <v>162000</v>
       </c>
       <c r="E41" s="3">
-        <v>269400</v>
+        <v>225000</v>
       </c>
       <c r="F41" s="3">
-        <v>298100</v>
+        <v>275800</v>
       </c>
       <c r="G41" s="3">
-        <v>303500</v>
+        <v>305100</v>
       </c>
       <c r="H41" s="3">
-        <v>281000</v>
+        <v>310700</v>
       </c>
       <c r="I41" s="3">
-        <v>349300</v>
+        <v>287600</v>
       </c>
       <c r="J41" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K41" s="3">
         <v>256500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>273500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>232900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30500</v>
+        <v>28200</v>
       </c>
       <c r="E42" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G42" s="3">
         <v>29200</v>
       </c>
-      <c r="F42" s="3">
-        <v>28500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>34000</v>
-      </c>
       <c r="H42" s="3">
-        <v>55700</v>
+        <v>34800</v>
       </c>
       <c r="I42" s="3">
-        <v>51000</v>
+        <v>57000</v>
       </c>
       <c r="J42" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K42" s="3">
         <v>38500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>50700</v>
+        <v>48300</v>
       </c>
       <c r="E43" s="3">
-        <v>46400</v>
+        <v>51900</v>
       </c>
       <c r="F43" s="3">
-        <v>40700</v>
+        <v>47500</v>
       </c>
       <c r="G43" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="H43" s="3">
-        <v>44200</v>
+        <v>42900</v>
       </c>
       <c r="I43" s="3">
-        <v>53000</v>
+        <v>45300</v>
       </c>
       <c r="J43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K43" s="3">
         <v>46900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>253600</v>
+        <v>278000</v>
       </c>
       <c r="E44" s="3">
-        <v>236600</v>
+        <v>259600</v>
       </c>
       <c r="F44" s="3">
-        <v>221000</v>
+        <v>242200</v>
       </c>
       <c r="G44" s="3">
-        <v>199700</v>
+        <v>226200</v>
       </c>
       <c r="H44" s="3">
-        <v>189200</v>
+        <v>204400</v>
       </c>
       <c r="I44" s="3">
-        <v>173400</v>
+        <v>193700</v>
       </c>
       <c r="J44" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K44" s="3">
         <v>160800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>168100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30800</v>
+        <v>102100</v>
       </c>
       <c r="E45" s="3">
-        <v>37200</v>
+        <v>31600</v>
       </c>
       <c r="F45" s="3">
-        <v>41300</v>
+        <v>38100</v>
       </c>
       <c r="G45" s="3">
-        <v>56500</v>
+        <v>42300</v>
       </c>
       <c r="H45" s="3">
-        <v>33100</v>
+        <v>57800</v>
       </c>
       <c r="I45" s="3">
-        <v>24600</v>
+        <v>33900</v>
       </c>
       <c r="J45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K45" s="3">
         <v>18100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>585400</v>
+        <v>618500</v>
       </c>
       <c r="E46" s="3">
-        <v>618800</v>
+        <v>599200</v>
       </c>
       <c r="F46" s="3">
-        <v>629500</v>
+        <v>633400</v>
       </c>
       <c r="G46" s="3">
-        <v>635600</v>
+        <v>644400</v>
       </c>
       <c r="H46" s="3">
-        <v>603300</v>
+        <v>650600</v>
       </c>
       <c r="I46" s="3">
-        <v>651300</v>
+        <v>617500</v>
       </c>
       <c r="J46" s="3">
+        <v>666700</v>
+      </c>
+      <c r="K46" s="3">
         <v>520800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>544700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>502300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,43 +2056,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3961200</v>
+        <v>3980200</v>
       </c>
       <c r="E48" s="3">
-        <v>3832600</v>
+        <v>4054700</v>
       </c>
       <c r="F48" s="3">
-        <v>3774000</v>
+        <v>3923100</v>
       </c>
       <c r="G48" s="3">
-        <v>3982400</v>
+        <v>3863100</v>
       </c>
       <c r="H48" s="3">
-        <v>3952000</v>
+        <v>4076500</v>
       </c>
       <c r="I48" s="3">
-        <v>3874100</v>
+        <v>4045300</v>
       </c>
       <c r="J48" s="3">
+        <v>3965600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3859700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3833800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3736600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68300</v>
+        <v>67600</v>
       </c>
       <c r="E52" s="3">
-        <v>71600</v>
+        <v>69900</v>
       </c>
       <c r="F52" s="3">
-        <v>74300</v>
+        <v>73300</v>
       </c>
       <c r="G52" s="3">
-        <v>77000</v>
+        <v>76000</v>
       </c>
       <c r="H52" s="3">
         <v>78800</v>
       </c>
       <c r="I52" s="3">
-        <v>83300</v>
+        <v>80600</v>
       </c>
       <c r="J52" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K52" s="3">
         <v>85500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4614900</v>
+        <v>4666400</v>
       </c>
       <c r="E54" s="3">
-        <v>4523000</v>
+        <v>4723900</v>
       </c>
       <c r="F54" s="3">
-        <v>4477800</v>
+        <v>4629800</v>
       </c>
       <c r="G54" s="3">
-        <v>4695000</v>
+        <v>4583500</v>
       </c>
       <c r="H54" s="3">
-        <v>4634000</v>
+        <v>4805900</v>
       </c>
       <c r="I54" s="3">
-        <v>4608800</v>
+        <v>4743500</v>
       </c>
       <c r="J54" s="3">
+        <v>4717600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4466000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4463100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4326500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>175300</v>
+        <v>143600</v>
       </c>
       <c r="E57" s="3">
-        <v>165400</v>
+        <v>179500</v>
       </c>
       <c r="F57" s="3">
-        <v>171500</v>
+        <v>169300</v>
       </c>
       <c r="G57" s="3">
-        <v>148200</v>
+        <v>175600</v>
       </c>
       <c r="H57" s="3">
-        <v>150000</v>
+        <v>151700</v>
       </c>
       <c r="I57" s="3">
-        <v>127400</v>
+        <v>153500</v>
       </c>
       <c r="J57" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K57" s="3">
         <v>111800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>131700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2279,95 +2413,104 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>128100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24700</v>
+        <v>50600</v>
       </c>
       <c r="E59" s="3">
-        <v>18600</v>
+        <v>25300</v>
       </c>
       <c r="F59" s="3">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="G59" s="3">
-        <v>24600</v>
+        <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>36600</v>
+        <v>25200</v>
       </c>
       <c r="I59" s="3">
-        <v>34500</v>
+        <v>37400</v>
       </c>
       <c r="J59" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K59" s="3">
         <v>24300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200600</v>
+        <v>194700</v>
       </c>
       <c r="E60" s="3">
-        <v>184500</v>
+        <v>205300</v>
       </c>
       <c r="F60" s="3">
-        <v>190900</v>
+        <v>188900</v>
       </c>
       <c r="G60" s="3">
-        <v>173300</v>
+        <v>195400</v>
       </c>
       <c r="H60" s="3">
-        <v>187200</v>
+        <v>177400</v>
       </c>
       <c r="I60" s="3">
-        <v>290000</v>
+        <v>191600</v>
       </c>
       <c r="J60" s="3">
+        <v>296900</v>
+      </c>
+      <c r="K60" s="3">
         <v>136700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>158200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2390,54 +2533,60 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>127400</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>928300</v>
+        <v>923400</v>
       </c>
       <c r="E62" s="3">
-        <v>869700</v>
+        <v>950300</v>
       </c>
       <c r="F62" s="3">
-        <v>832200</v>
+        <v>890300</v>
       </c>
       <c r="G62" s="3">
-        <v>837200</v>
+        <v>851900</v>
       </c>
       <c r="H62" s="3">
-        <v>813100</v>
+        <v>857000</v>
       </c>
       <c r="I62" s="3">
-        <v>789400</v>
+        <v>832300</v>
       </c>
       <c r="J62" s="3">
+        <v>808100</v>
+      </c>
+      <c r="K62" s="3">
         <v>778900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>791900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>731000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1128900</v>
+        <v>1118100</v>
       </c>
       <c r="E66" s="3">
-        <v>1054200</v>
+        <v>1155600</v>
       </c>
       <c r="F66" s="3">
-        <v>1023100</v>
+        <v>1079100</v>
       </c>
       <c r="G66" s="3">
-        <v>1010500</v>
+        <v>1047300</v>
       </c>
       <c r="H66" s="3">
-        <v>1000300</v>
+        <v>1034400</v>
       </c>
       <c r="I66" s="3">
-        <v>1079500</v>
+        <v>1024000</v>
       </c>
       <c r="J66" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1043000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1077500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>893200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1336400</v>
+        <v>-1391800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1363600</v>
+        <v>-1367900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1384700</v>
+        <v>-1395800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1155800</v>
+        <v>-1417400</v>
       </c>
       <c r="H72" s="3">
-        <v>-1220900</v>
+        <v>-1183100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1316500</v>
+        <v>-1249700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1347600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3486000</v>
+        <v>3548200</v>
       </c>
       <c r="E76" s="3">
-        <v>3468800</v>
+        <v>3568300</v>
       </c>
       <c r="F76" s="3">
-        <v>3454600</v>
+        <v>3550700</v>
       </c>
       <c r="G76" s="3">
-        <v>3684500</v>
+        <v>3536200</v>
       </c>
       <c r="H76" s="3">
-        <v>3633700</v>
+        <v>3771500</v>
       </c>
       <c r="I76" s="3">
-        <v>3529300</v>
+        <v>3719500</v>
       </c>
       <c r="J76" s="3">
+        <v>3612700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3423000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3385600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3433300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37600</v>
+        <v>-11100</v>
       </c>
       <c r="E81" s="3">
-        <v>32000</v>
+        <v>38500</v>
       </c>
       <c r="F81" s="3">
-        <v>-219800</v>
+        <v>32700</v>
       </c>
       <c r="G81" s="3">
-        <v>65200</v>
+        <v>-225000</v>
       </c>
       <c r="H81" s="3">
-        <v>98000</v>
+        <v>66800</v>
       </c>
       <c r="I81" s="3">
-        <v>86500</v>
+        <v>100300</v>
       </c>
       <c r="J81" s="3">
+        <v>88600</v>
+      </c>
+      <c r="K81" s="3">
         <v>14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55000</v>
+        <v>49300</v>
       </c>
       <c r="E83" s="3">
-        <v>54000</v>
+        <v>56400</v>
       </c>
       <c r="F83" s="3">
-        <v>53300</v>
+        <v>55300</v>
       </c>
       <c r="G83" s="3">
-        <v>55400</v>
+        <v>54500</v>
       </c>
       <c r="H83" s="3">
-        <v>59300</v>
+        <v>56700</v>
       </c>
       <c r="I83" s="3">
-        <v>57000</v>
+        <v>60700</v>
       </c>
       <c r="J83" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K83" s="3">
         <v>34700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>56300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>112300</v>
+        <v>60700</v>
       </c>
       <c r="E89" s="3">
-        <v>105000</v>
+        <v>114900</v>
       </c>
       <c r="F89" s="3">
-        <v>110500</v>
+        <v>107500</v>
       </c>
       <c r="G89" s="3">
-        <v>126500</v>
+        <v>113100</v>
       </c>
       <c r="H89" s="3">
-        <v>167400</v>
+        <v>129500</v>
       </c>
       <c r="I89" s="3">
-        <v>166700</v>
+        <v>171400</v>
       </c>
       <c r="J89" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K89" s="3">
         <v>63200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>99100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,25 +3511,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>292600</v>
+        <v>-113900</v>
       </c>
       <c r="E91" s="3">
-        <v>-113700</v>
+        <v>299500</v>
       </c>
       <c r="F91" s="3">
-        <v>-106400</v>
+        <v>-116400</v>
       </c>
       <c r="G91" s="3">
-        <v>-92500</v>
+        <v>-108900</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-94700</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3318,16 +3539,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-69800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-92900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-141800</v>
+        <v>-113900</v>
       </c>
       <c r="E94" s="3">
-        <v>-116000</v>
+        <v>-145200</v>
       </c>
       <c r="F94" s="3">
-        <v>-105800</v>
+        <v>-118700</v>
       </c>
       <c r="G94" s="3">
-        <v>-91500</v>
+        <v>-108300</v>
       </c>
       <c r="H94" s="3">
-        <v>-108800</v>
+        <v>-93700</v>
       </c>
       <c r="I94" s="3">
-        <v>-68400</v>
+        <v>-111400</v>
       </c>
       <c r="J94" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-72500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-150400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-95900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="E96" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="F96" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="G96" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="H96" s="3">
-        <v>-9400</v>
+        <v>-11200</v>
       </c>
       <c r="I96" s="3">
-        <v>-6900</v>
+        <v>-9700</v>
       </c>
       <c r="J96" s="3">
         <v>-7000</v>
       </c>
       <c r="K96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-5000</v>
       </c>
       <c r="M96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19800</v>
+        <v>-10400</v>
       </c>
       <c r="E100" s="3">
-        <v>-16800</v>
+        <v>-20200</v>
       </c>
       <c r="F100" s="3">
-        <v>-10800</v>
+        <v>-17200</v>
       </c>
       <c r="G100" s="3">
-        <v>-12900</v>
+        <v>-11100</v>
       </c>
       <c r="H100" s="3">
-        <v>-127200</v>
+        <v>-13200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5600</v>
+        <v>-130200</v>
       </c>
       <c r="J100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>121300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>600</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49600</v>
+        <v>-63000</v>
       </c>
       <c r="E102" s="3">
-        <v>-28700</v>
+        <v>-50700</v>
       </c>
       <c r="F102" s="3">
-        <v>-5500</v>
+        <v>-29300</v>
       </c>
       <c r="G102" s="3">
-        <v>22600</v>
+        <v>-5600</v>
       </c>
       <c r="H102" s="3">
-        <v>-68300</v>
+        <v>23100</v>
       </c>
       <c r="I102" s="3">
-        <v>92800</v>
+        <v>-69900</v>
       </c>
       <c r="J102" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-17100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>240700</v>
+        <v>247100</v>
       </c>
       <c r="E8" s="3">
-        <v>264900</v>
+        <v>238400</v>
       </c>
       <c r="F8" s="3">
-        <v>258300</v>
+        <v>262500</v>
       </c>
       <c r="G8" s="3">
-        <v>254500</v>
+        <v>255900</v>
       </c>
       <c r="H8" s="3">
-        <v>296600</v>
+        <v>252100</v>
       </c>
       <c r="I8" s="3">
-        <v>295600</v>
+        <v>293900</v>
       </c>
       <c r="J8" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K8" s="3">
         <v>284900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>160800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>225300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>236900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>127400</v>
+        <v>118100</v>
       </c>
       <c r="E9" s="3">
-        <v>124200</v>
+        <v>126300</v>
       </c>
       <c r="F9" s="3">
-        <v>113600</v>
+        <v>123000</v>
       </c>
       <c r="G9" s="3">
-        <v>111000</v>
+        <v>112600</v>
       </c>
       <c r="H9" s="3">
-        <v>125000</v>
+        <v>110000</v>
       </c>
       <c r="I9" s="3">
-        <v>116500</v>
+        <v>123800</v>
       </c>
       <c r="J9" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K9" s="3">
         <v>103000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>88700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>116900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113200</v>
+        <v>129000</v>
       </c>
       <c r="E10" s="3">
-        <v>140700</v>
+        <v>112200</v>
       </c>
       <c r="F10" s="3">
-        <v>144700</v>
+        <v>139400</v>
       </c>
       <c r="G10" s="3">
-        <v>143500</v>
+        <v>143300</v>
       </c>
       <c r="H10" s="3">
-        <v>171700</v>
+        <v>142200</v>
       </c>
       <c r="I10" s="3">
-        <v>179100</v>
+        <v>170100</v>
       </c>
       <c r="J10" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K10" s="3">
         <v>181800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>117200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
-        <v>5000</v>
-      </c>
       <c r="H12" s="3">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,84 +946,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>49800</v>
+        <v>28800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>49400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>293800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>291000</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="E15" s="3">
-        <v>56400</v>
+        <v>48900</v>
       </c>
       <c r="F15" s="3">
-        <v>55300</v>
+        <v>55800</v>
       </c>
       <c r="G15" s="3">
-        <v>54500</v>
+        <v>54800</v>
       </c>
       <c r="H15" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="I15" s="3">
-        <v>60700</v>
+        <v>56200</v>
       </c>
       <c r="J15" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K15" s="3">
         <v>56900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>45100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>56300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248100</v>
+        <v>213900</v>
       </c>
       <c r="E17" s="3">
-        <v>200000</v>
+        <v>245800</v>
       </c>
       <c r="F17" s="3">
-        <v>183500</v>
+        <v>198100</v>
       </c>
       <c r="G17" s="3">
-        <v>475500</v>
+        <v>181800</v>
       </c>
       <c r="H17" s="3">
-        <v>197100</v>
+        <v>471100</v>
       </c>
       <c r="I17" s="3">
-        <v>189500</v>
+        <v>195300</v>
       </c>
       <c r="J17" s="3">
+        <v>187800</v>
+      </c>
+      <c r="K17" s="3">
         <v>170100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>183900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
-        <v>65000</v>
-      </c>
       <c r="F18" s="3">
-        <v>74700</v>
+        <v>64400</v>
       </c>
       <c r="G18" s="3">
-        <v>-221000</v>
+        <v>74100</v>
       </c>
       <c r="H18" s="3">
-        <v>99500</v>
+        <v>-218900</v>
       </c>
       <c r="I18" s="3">
-        <v>106000</v>
+        <v>98600</v>
       </c>
       <c r="J18" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K18" s="3">
         <v>114800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>58800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,84 +1143,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11200</v>
+        <v>5800</v>
       </c>
       <c r="E20" s="3">
-        <v>-8100</v>
+        <v>-11100</v>
       </c>
       <c r="F20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>5900</v>
-      </c>
       <c r="J20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30700</v>
+        <v>88400</v>
       </c>
       <c r="E21" s="3">
-        <v>113200</v>
+        <v>30400</v>
       </c>
       <c r="F21" s="3">
-        <v>128700</v>
+        <v>112200</v>
       </c>
       <c r="G21" s="3">
-        <v>-170700</v>
+        <v>127600</v>
       </c>
       <c r="H21" s="3">
-        <v>154700</v>
+        <v>-169200</v>
       </c>
       <c r="I21" s="3">
-        <v>172600</v>
+        <v>153300</v>
       </c>
       <c r="J21" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K21" s="3">
         <v>170400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18700</v>
+        <v>39000</v>
       </c>
       <c r="E23" s="3">
-        <v>56900</v>
+        <v>-18500</v>
       </c>
       <c r="F23" s="3">
-        <v>73400</v>
+        <v>56300</v>
       </c>
       <c r="G23" s="3">
-        <v>-225300</v>
+        <v>72800</v>
       </c>
       <c r="H23" s="3">
-        <v>98000</v>
+        <v>-223200</v>
       </c>
       <c r="I23" s="3">
-        <v>111900</v>
+        <v>97100</v>
       </c>
       <c r="J23" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K23" s="3">
         <v>112000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7600</v>
+        <v>30800</v>
       </c>
       <c r="E24" s="3">
-        <v>18400</v>
+        <v>-7500</v>
       </c>
       <c r="F24" s="3">
-        <v>40700</v>
+        <v>18200</v>
       </c>
       <c r="G24" s="3">
+        <v>40300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>31200</v>
-      </c>
       <c r="I24" s="3">
-        <v>11600</v>
+        <v>30900</v>
       </c>
       <c r="J24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11100</v>
+        <v>8300</v>
       </c>
       <c r="E26" s="3">
-        <v>38500</v>
+        <v>-11000</v>
       </c>
       <c r="F26" s="3">
-        <v>32700</v>
+        <v>38100</v>
       </c>
       <c r="G26" s="3">
-        <v>-225000</v>
+        <v>32400</v>
       </c>
       <c r="H26" s="3">
-        <v>66800</v>
+        <v>-222900</v>
       </c>
       <c r="I26" s="3">
-        <v>100300</v>
+        <v>66200</v>
       </c>
       <c r="J26" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K26" s="3">
         <v>88600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11100</v>
+        <v>8300</v>
       </c>
       <c r="E27" s="3">
-        <v>38500</v>
+        <v>-11000</v>
       </c>
       <c r="F27" s="3">
-        <v>32700</v>
+        <v>38100</v>
       </c>
       <c r="G27" s="3">
-        <v>-225000</v>
+        <v>32400</v>
       </c>
       <c r="H27" s="3">
-        <v>66800</v>
+        <v>-222900</v>
       </c>
       <c r="I27" s="3">
-        <v>100300</v>
+        <v>66200</v>
       </c>
       <c r="J27" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K27" s="3">
         <v>88600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11200</v>
+        <v>-5800</v>
       </c>
       <c r="E32" s="3">
-        <v>8100</v>
+        <v>11100</v>
       </c>
       <c r="F32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-5900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11100</v>
+        <v>8300</v>
       </c>
       <c r="E33" s="3">
-        <v>38500</v>
+        <v>-11000</v>
       </c>
       <c r="F33" s="3">
-        <v>32700</v>
+        <v>38100</v>
       </c>
       <c r="G33" s="3">
-        <v>-225000</v>
+        <v>32400</v>
       </c>
       <c r="H33" s="3">
-        <v>66800</v>
+        <v>-222900</v>
       </c>
       <c r="I33" s="3">
-        <v>100300</v>
+        <v>66200</v>
       </c>
       <c r="J33" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K33" s="3">
         <v>88600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11100</v>
+        <v>8300</v>
       </c>
       <c r="E35" s="3">
-        <v>38500</v>
+        <v>-11000</v>
       </c>
       <c r="F35" s="3">
-        <v>32700</v>
+        <v>38100</v>
       </c>
       <c r="G35" s="3">
-        <v>-225000</v>
+        <v>32400</v>
       </c>
       <c r="H35" s="3">
-        <v>66800</v>
+        <v>-222900</v>
       </c>
       <c r="I35" s="3">
-        <v>100300</v>
+        <v>66200</v>
       </c>
       <c r="J35" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K35" s="3">
         <v>88600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,236 +1879,255 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162000</v>
+        <v>157000</v>
       </c>
       <c r="E41" s="3">
-        <v>225000</v>
+        <v>160500</v>
       </c>
       <c r="F41" s="3">
-        <v>275800</v>
+        <v>222900</v>
       </c>
       <c r="G41" s="3">
-        <v>305100</v>
+        <v>273200</v>
       </c>
       <c r="H41" s="3">
-        <v>310700</v>
+        <v>302300</v>
       </c>
       <c r="I41" s="3">
-        <v>287600</v>
+        <v>307800</v>
       </c>
       <c r="J41" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K41" s="3">
         <v>357500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>273500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>232900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="E42" s="3">
-        <v>31200</v>
+        <v>27900</v>
       </c>
       <c r="F42" s="3">
-        <v>29900</v>
+        <v>30900</v>
       </c>
       <c r="G42" s="3">
-        <v>29200</v>
+        <v>29600</v>
       </c>
       <c r="H42" s="3">
-        <v>34800</v>
+        <v>28900</v>
       </c>
       <c r="I42" s="3">
-        <v>57000</v>
+        <v>34500</v>
       </c>
       <c r="J42" s="3">
+        <v>56500</v>
+      </c>
+      <c r="K42" s="3">
         <v>52200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>48300</v>
+        <v>43300</v>
       </c>
       <c r="E43" s="3">
-        <v>51900</v>
+        <v>47800</v>
       </c>
       <c r="F43" s="3">
-        <v>47500</v>
+        <v>51400</v>
       </c>
       <c r="G43" s="3">
-        <v>41600</v>
+        <v>47000</v>
       </c>
       <c r="H43" s="3">
-        <v>42900</v>
+        <v>41200</v>
       </c>
       <c r="I43" s="3">
-        <v>45300</v>
+        <v>42500</v>
       </c>
       <c r="J43" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K43" s="3">
         <v>54300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>278000</v>
+        <v>280800</v>
       </c>
       <c r="E44" s="3">
-        <v>259600</v>
+        <v>275400</v>
       </c>
       <c r="F44" s="3">
-        <v>242200</v>
+        <v>257200</v>
       </c>
       <c r="G44" s="3">
-        <v>226200</v>
+        <v>240000</v>
       </c>
       <c r="H44" s="3">
-        <v>204400</v>
+        <v>224100</v>
       </c>
       <c r="I44" s="3">
-        <v>193700</v>
+        <v>202500</v>
       </c>
       <c r="J44" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K44" s="3">
         <v>177500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>160800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102100</v>
+        <v>27800</v>
       </c>
       <c r="E45" s="3">
-        <v>31600</v>
+        <v>101200</v>
       </c>
       <c r="F45" s="3">
-        <v>38100</v>
+        <v>31300</v>
       </c>
       <c r="G45" s="3">
-        <v>42300</v>
+        <v>37700</v>
       </c>
       <c r="H45" s="3">
-        <v>57800</v>
+        <v>41900</v>
       </c>
       <c r="I45" s="3">
-        <v>33900</v>
+        <v>57300</v>
       </c>
       <c r="J45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="K45" s="3">
         <v>25200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>618500</v>
+        <v>538000</v>
       </c>
       <c r="E46" s="3">
-        <v>599200</v>
+        <v>612900</v>
       </c>
       <c r="F46" s="3">
-        <v>633400</v>
+        <v>593700</v>
       </c>
       <c r="G46" s="3">
-        <v>644400</v>
+        <v>627600</v>
       </c>
       <c r="H46" s="3">
-        <v>650600</v>
+        <v>638400</v>
       </c>
       <c r="I46" s="3">
-        <v>617500</v>
+        <v>644600</v>
       </c>
       <c r="J46" s="3">
+        <v>611800</v>
+      </c>
+      <c r="K46" s="3">
         <v>666700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>520800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>544700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>502300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,46 +2164,52 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3980200</v>
+        <v>4003200</v>
       </c>
       <c r="E48" s="3">
-        <v>4054700</v>
+        <v>3943600</v>
       </c>
       <c r="F48" s="3">
-        <v>3923100</v>
+        <v>4017400</v>
       </c>
       <c r="G48" s="3">
-        <v>3863100</v>
+        <v>3887000</v>
       </c>
       <c r="H48" s="3">
-        <v>4076500</v>
+        <v>3827600</v>
       </c>
       <c r="I48" s="3">
-        <v>4045300</v>
+        <v>4039000</v>
       </c>
       <c r="J48" s="3">
+        <v>4008100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3965600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3859700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3833800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3736600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67600</v>
+        <v>93100</v>
       </c>
       <c r="E52" s="3">
-        <v>69900</v>
+        <v>66900</v>
       </c>
       <c r="F52" s="3">
-        <v>73300</v>
+        <v>69300</v>
       </c>
       <c r="G52" s="3">
-        <v>76000</v>
+        <v>72600</v>
       </c>
       <c r="H52" s="3">
-        <v>78800</v>
+        <v>75300</v>
       </c>
       <c r="I52" s="3">
-        <v>80600</v>
+        <v>78100</v>
       </c>
       <c r="J52" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K52" s="3">
         <v>85300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4666400</v>
+        <v>4634300</v>
       </c>
       <c r="E54" s="3">
-        <v>4723900</v>
+        <v>4623400</v>
       </c>
       <c r="F54" s="3">
-        <v>4629800</v>
+        <v>4680400</v>
       </c>
       <c r="G54" s="3">
-        <v>4583500</v>
+        <v>4587200</v>
       </c>
       <c r="H54" s="3">
-        <v>4805900</v>
+        <v>4541400</v>
       </c>
       <c r="I54" s="3">
-        <v>4743500</v>
+        <v>4761700</v>
       </c>
       <c r="J54" s="3">
+        <v>4699800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4717600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4466000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4463100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4326500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>143600</v>
+        <v>174300</v>
       </c>
       <c r="E57" s="3">
-        <v>179500</v>
+        <v>142300</v>
       </c>
       <c r="F57" s="3">
-        <v>169300</v>
+        <v>177800</v>
       </c>
       <c r="G57" s="3">
-        <v>175600</v>
+        <v>167800</v>
       </c>
       <c r="H57" s="3">
-        <v>151700</v>
+        <v>174000</v>
       </c>
       <c r="I57" s="3">
-        <v>153500</v>
+        <v>150300</v>
       </c>
       <c r="J57" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K57" s="3">
         <v>130400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>131700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,101 +2550,110 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>131100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50600</v>
+        <v>26800</v>
       </c>
       <c r="E59" s="3">
-        <v>25300</v>
+        <v>50100</v>
       </c>
       <c r="F59" s="3">
-        <v>19000</v>
+        <v>25100</v>
       </c>
       <c r="G59" s="3">
-        <v>19300</v>
+        <v>18900</v>
       </c>
       <c r="H59" s="3">
-        <v>25200</v>
+        <v>19100</v>
       </c>
       <c r="I59" s="3">
-        <v>37400</v>
+        <v>24900</v>
       </c>
       <c r="J59" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K59" s="3">
         <v>35300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>194700</v>
+        <v>201600</v>
       </c>
       <c r="E60" s="3">
-        <v>205300</v>
+        <v>193000</v>
       </c>
       <c r="F60" s="3">
-        <v>188900</v>
+        <v>203400</v>
       </c>
       <c r="G60" s="3">
-        <v>195400</v>
+        <v>187100</v>
       </c>
       <c r="H60" s="3">
-        <v>177400</v>
+        <v>193600</v>
       </c>
       <c r="I60" s="3">
-        <v>191600</v>
+        <v>175800</v>
       </c>
       <c r="J60" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K60" s="3">
         <v>296900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>158200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2536,57 +2679,63 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>127400</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>923400</v>
+        <v>943100</v>
       </c>
       <c r="E62" s="3">
-        <v>950300</v>
+        <v>914900</v>
       </c>
       <c r="F62" s="3">
-        <v>890300</v>
+        <v>941500</v>
       </c>
       <c r="G62" s="3">
-        <v>851900</v>
+        <v>882100</v>
       </c>
       <c r="H62" s="3">
-        <v>857000</v>
+        <v>844100</v>
       </c>
       <c r="I62" s="3">
-        <v>832300</v>
+        <v>849100</v>
       </c>
       <c r="J62" s="3">
+        <v>824700</v>
+      </c>
+      <c r="K62" s="3">
         <v>808100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>778900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>791900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>731000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1118100</v>
+        <v>1144700</v>
       </c>
       <c r="E66" s="3">
-        <v>1155600</v>
+        <v>1107800</v>
       </c>
       <c r="F66" s="3">
-        <v>1079100</v>
+        <v>1144900</v>
       </c>
       <c r="G66" s="3">
-        <v>1047300</v>
+        <v>1069200</v>
       </c>
       <c r="H66" s="3">
-        <v>1034400</v>
+        <v>1037700</v>
       </c>
       <c r="I66" s="3">
-        <v>1024000</v>
+        <v>1024900</v>
       </c>
       <c r="J66" s="3">
+        <v>1014500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1105000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1043000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1077500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>893200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1391800</v>
+        <v>-1380400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1367900</v>
+        <v>-1379000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1395800</v>
+        <v>-1355300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1417400</v>
+        <v>-1383000</v>
       </c>
       <c r="H72" s="3">
-        <v>-1183100</v>
+        <v>-1404300</v>
       </c>
       <c r="I72" s="3">
-        <v>-1249700</v>
+        <v>-1172200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1238200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3548200</v>
+        <v>3489600</v>
       </c>
       <c r="E76" s="3">
-        <v>3568300</v>
+        <v>3515600</v>
       </c>
       <c r="F76" s="3">
-        <v>3550700</v>
+        <v>3535500</v>
       </c>
       <c r="G76" s="3">
-        <v>3536200</v>
+        <v>3518000</v>
       </c>
       <c r="H76" s="3">
-        <v>3771500</v>
+        <v>3503700</v>
       </c>
       <c r="I76" s="3">
-        <v>3719500</v>
+        <v>3736800</v>
       </c>
       <c r="J76" s="3">
+        <v>3685300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3612700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3423000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3385600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3433300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11100</v>
+        <v>8300</v>
       </c>
       <c r="E81" s="3">
-        <v>38500</v>
+        <v>-11000</v>
       </c>
       <c r="F81" s="3">
-        <v>32700</v>
+        <v>38100</v>
       </c>
       <c r="G81" s="3">
-        <v>-225000</v>
+        <v>32400</v>
       </c>
       <c r="H81" s="3">
-        <v>66800</v>
+        <v>-222900</v>
       </c>
       <c r="I81" s="3">
-        <v>100300</v>
+        <v>66200</v>
       </c>
       <c r="J81" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K81" s="3">
         <v>88600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="E83" s="3">
-        <v>56400</v>
+        <v>48900</v>
       </c>
       <c r="F83" s="3">
-        <v>55300</v>
+        <v>55800</v>
       </c>
       <c r="G83" s="3">
-        <v>54500</v>
+        <v>54800</v>
       </c>
       <c r="H83" s="3">
-        <v>56700</v>
+        <v>54000</v>
       </c>
       <c r="I83" s="3">
-        <v>60700</v>
+        <v>56200</v>
       </c>
       <c r="J83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K83" s="3">
         <v>58300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>56300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60700</v>
+        <v>97800</v>
       </c>
       <c r="E89" s="3">
-        <v>114900</v>
+        <v>60100</v>
       </c>
       <c r="F89" s="3">
-        <v>107500</v>
+        <v>113900</v>
       </c>
       <c r="G89" s="3">
-        <v>113100</v>
+        <v>106500</v>
       </c>
       <c r="H89" s="3">
-        <v>129500</v>
+        <v>112100</v>
       </c>
       <c r="I89" s="3">
-        <v>171400</v>
+        <v>128300</v>
       </c>
       <c r="J89" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K89" s="3">
         <v>170600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>99100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,28 +3732,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-113900</v>
+        <v>-89200</v>
       </c>
       <c r="E91" s="3">
-        <v>299500</v>
+        <v>-112800</v>
       </c>
       <c r="F91" s="3">
-        <v>-116400</v>
+        <v>296700</v>
       </c>
       <c r="G91" s="3">
-        <v>-108900</v>
+        <v>-115300</v>
       </c>
       <c r="H91" s="3">
-        <v>-94700</v>
+        <v>-107900</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-93800</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3542,16 +3763,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-69800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-92900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113900</v>
+        <v>-86200</v>
       </c>
       <c r="E94" s="3">
-        <v>-145200</v>
+        <v>-112800</v>
       </c>
       <c r="F94" s="3">
-        <v>-118700</v>
+        <v>-143800</v>
       </c>
       <c r="G94" s="3">
-        <v>-108300</v>
+        <v>-117600</v>
       </c>
       <c r="H94" s="3">
-        <v>-93700</v>
+        <v>-107300</v>
       </c>
       <c r="I94" s="3">
-        <v>-111400</v>
+        <v>-92800</v>
       </c>
       <c r="J94" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-70000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-150400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-95900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E96" s="3">
         <v>-11200</v>
       </c>
       <c r="F96" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="G96" s="3">
         <v>-11200</v>
       </c>
       <c r="H96" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="I96" s="3">
-        <v>-9700</v>
+        <v>-11100</v>
       </c>
       <c r="J96" s="3">
-        <v>-7000</v>
+        <v>-9600</v>
       </c>
       <c r="K96" s="3">
         <v>-7000</v>
       </c>
       <c r="L96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-5000</v>
       </c>
       <c r="N96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10400</v>
+        <v>-14600</v>
       </c>
       <c r="E100" s="3">
-        <v>-20200</v>
+        <v>-10300</v>
       </c>
       <c r="F100" s="3">
-        <v>-17200</v>
+        <v>-20000</v>
       </c>
       <c r="G100" s="3">
-        <v>-11100</v>
+        <v>-17100</v>
       </c>
       <c r="H100" s="3">
-        <v>-13200</v>
+        <v>-11000</v>
       </c>
       <c r="I100" s="3">
-        <v>-130200</v>
+        <v>-13100</v>
       </c>
       <c r="J100" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>121300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
-        <v>700</v>
-      </c>
       <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-63000</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
-        <v>-50700</v>
+        <v>-62400</v>
       </c>
       <c r="F102" s="3">
-        <v>-29300</v>
+        <v>-50300</v>
       </c>
       <c r="G102" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
-        <v>23100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-69900</v>
+        <v>22900</v>
       </c>
       <c r="J102" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K102" s="3">
         <v>95000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>247100</v>
+        <v>284500</v>
       </c>
       <c r="E8" s="3">
-        <v>238400</v>
+        <v>254600</v>
       </c>
       <c r="F8" s="3">
-        <v>262500</v>
+        <v>245700</v>
       </c>
       <c r="G8" s="3">
-        <v>255900</v>
+        <v>270500</v>
       </c>
       <c r="H8" s="3">
-        <v>252100</v>
+        <v>263700</v>
       </c>
       <c r="I8" s="3">
-        <v>293900</v>
+        <v>259800</v>
       </c>
       <c r="J8" s="3">
+        <v>302900</v>
+      </c>
+      <c r="K8" s="3">
         <v>292900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>284900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>160800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>225300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>236900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>118100</v>
+        <v>142000</v>
       </c>
       <c r="E9" s="3">
-        <v>126300</v>
+        <v>121700</v>
       </c>
       <c r="F9" s="3">
-        <v>123000</v>
+        <v>130100</v>
       </c>
       <c r="G9" s="3">
-        <v>112600</v>
+        <v>126800</v>
       </c>
       <c r="H9" s="3">
-        <v>110000</v>
+        <v>116000</v>
       </c>
       <c r="I9" s="3">
-        <v>123800</v>
+        <v>113300</v>
       </c>
       <c r="J9" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K9" s="3">
         <v>115400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>103000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>88700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>116900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>129000</v>
+        <v>142500</v>
       </c>
       <c r="E10" s="3">
-        <v>112200</v>
+        <v>132900</v>
       </c>
       <c r="F10" s="3">
-        <v>139400</v>
+        <v>115600</v>
       </c>
       <c r="G10" s="3">
-        <v>143300</v>
+        <v>143700</v>
       </c>
       <c r="H10" s="3">
-        <v>142200</v>
+        <v>147700</v>
       </c>
       <c r="I10" s="3">
-        <v>170100</v>
+        <v>146500</v>
       </c>
       <c r="J10" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K10" s="3">
         <v>177400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>117200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>5300</v>
+        <v>9300</v>
       </c>
       <c r="F12" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="G12" s="3">
-        <v>4800</v>
+        <v>5700</v>
       </c>
       <c r="H12" s="3">
         <v>4900</v>
       </c>
       <c r="I12" s="3">
-        <v>3700</v>
+        <v>5100</v>
       </c>
       <c r="J12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>28800</v>
+        <v>15400</v>
       </c>
       <c r="E14" s="3">
-        <v>49400</v>
+        <v>29700</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>50900</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>291000</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>299900</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>8300</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>49400</v>
+        <v>66500</v>
       </c>
       <c r="E15" s="3">
-        <v>48900</v>
+        <v>50900</v>
       </c>
       <c r="F15" s="3">
-        <v>55800</v>
+        <v>50300</v>
       </c>
       <c r="G15" s="3">
-        <v>54800</v>
+        <v>57500</v>
       </c>
       <c r="H15" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="I15" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="J15" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K15" s="3">
         <v>60100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>56900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>45100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>56300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>213900</v>
+        <v>244700</v>
       </c>
       <c r="E17" s="3">
-        <v>245800</v>
+        <v>220400</v>
       </c>
       <c r="F17" s="3">
-        <v>198100</v>
+        <v>253300</v>
       </c>
       <c r="G17" s="3">
-        <v>181800</v>
+        <v>204200</v>
       </c>
       <c r="H17" s="3">
-        <v>471100</v>
+        <v>187400</v>
       </c>
       <c r="I17" s="3">
-        <v>195300</v>
+        <v>485400</v>
       </c>
       <c r="J17" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K17" s="3">
         <v>187800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>170100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>183900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>33200</v>
+        <v>39800</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>34200</v>
       </c>
       <c r="F18" s="3">
-        <v>64400</v>
+        <v>-7600</v>
       </c>
       <c r="G18" s="3">
-        <v>74100</v>
+        <v>66300</v>
       </c>
       <c r="H18" s="3">
-        <v>-218900</v>
+        <v>76300</v>
       </c>
       <c r="I18" s="3">
-        <v>98600</v>
+        <v>-225600</v>
       </c>
       <c r="J18" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K18" s="3">
         <v>105100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>58800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>88400</v>
+        <v>111600</v>
       </c>
       <c r="E21" s="3">
-        <v>30400</v>
+        <v>91100</v>
       </c>
       <c r="F21" s="3">
-        <v>112200</v>
+        <v>31300</v>
       </c>
       <c r="G21" s="3">
-        <v>127600</v>
+        <v>115600</v>
       </c>
       <c r="H21" s="3">
-        <v>-169200</v>
+        <v>131400</v>
       </c>
       <c r="I21" s="3">
-        <v>153300</v>
+        <v>-174300</v>
       </c>
       <c r="J21" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K21" s="3">
         <v>171000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>170400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39000</v>
+        <v>45100</v>
       </c>
       <c r="E23" s="3">
-        <v>-18500</v>
+        <v>40200</v>
       </c>
       <c r="F23" s="3">
-        <v>56300</v>
+        <v>-19000</v>
       </c>
       <c r="G23" s="3">
-        <v>72800</v>
+        <v>58100</v>
       </c>
       <c r="H23" s="3">
-        <v>-223200</v>
+        <v>75000</v>
       </c>
       <c r="I23" s="3">
-        <v>97100</v>
+        <v>-230000</v>
       </c>
       <c r="J23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K23" s="3">
         <v>110900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>112000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30800</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>-7500</v>
+        <v>31700</v>
       </c>
       <c r="F24" s="3">
-        <v>18200</v>
+        <v>-7700</v>
       </c>
       <c r="G24" s="3">
-        <v>40300</v>
+        <v>18800</v>
       </c>
       <c r="H24" s="3">
+        <v>41600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>30900</v>
-      </c>
       <c r="J24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8300</v>
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-11000</v>
+        <v>8500</v>
       </c>
       <c r="F26" s="3">
-        <v>38100</v>
+        <v>-11300</v>
       </c>
       <c r="G26" s="3">
-        <v>32400</v>
+        <v>39300</v>
       </c>
       <c r="H26" s="3">
-        <v>-222900</v>
+        <v>33400</v>
       </c>
       <c r="I26" s="3">
-        <v>66200</v>
+        <v>-229700</v>
       </c>
       <c r="J26" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K26" s="3">
         <v>99400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>88600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8300</v>
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-11000</v>
+        <v>8500</v>
       </c>
       <c r="F27" s="3">
-        <v>38100</v>
+        <v>-11300</v>
       </c>
       <c r="G27" s="3">
-        <v>32400</v>
+        <v>39300</v>
       </c>
       <c r="H27" s="3">
-        <v>-222900</v>
+        <v>33400</v>
       </c>
       <c r="I27" s="3">
-        <v>66200</v>
+        <v>-229700</v>
       </c>
       <c r="J27" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K27" s="3">
         <v>99400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>88600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="E32" s="3">
-        <v>11100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8300</v>
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-11000</v>
+        <v>8500</v>
       </c>
       <c r="F33" s="3">
-        <v>38100</v>
+        <v>-11300</v>
       </c>
       <c r="G33" s="3">
-        <v>32400</v>
+        <v>39300</v>
       </c>
       <c r="H33" s="3">
-        <v>-222900</v>
+        <v>33400</v>
       </c>
       <c r="I33" s="3">
-        <v>66200</v>
+        <v>-229700</v>
       </c>
       <c r="J33" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K33" s="3">
         <v>99400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>88600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8300</v>
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-11000</v>
+        <v>8500</v>
       </c>
       <c r="F35" s="3">
-        <v>38100</v>
+        <v>-11300</v>
       </c>
       <c r="G35" s="3">
-        <v>32400</v>
+        <v>39300</v>
       </c>
       <c r="H35" s="3">
-        <v>-222900</v>
+        <v>33400</v>
       </c>
       <c r="I35" s="3">
-        <v>66200</v>
+        <v>-229700</v>
       </c>
       <c r="J35" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K35" s="3">
         <v>99400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>88600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,254 +1966,273 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>157000</v>
+        <v>155400</v>
       </c>
       <c r="E41" s="3">
-        <v>160500</v>
+        <v>161800</v>
       </c>
       <c r="F41" s="3">
-        <v>222900</v>
+        <v>165400</v>
       </c>
       <c r="G41" s="3">
-        <v>273200</v>
+        <v>229700</v>
       </c>
       <c r="H41" s="3">
-        <v>302300</v>
+        <v>281500</v>
       </c>
       <c r="I41" s="3">
-        <v>307800</v>
+        <v>311500</v>
       </c>
       <c r="J41" s="3">
+        <v>317200</v>
+      </c>
+      <c r="K41" s="3">
         <v>285000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>357500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>256500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>273500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>232900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29100</v>
+        <v>20400</v>
       </c>
       <c r="E42" s="3">
-        <v>27900</v>
+        <v>30000</v>
       </c>
       <c r="F42" s="3">
-        <v>30900</v>
+        <v>28800</v>
       </c>
       <c r="G42" s="3">
-        <v>29600</v>
+        <v>31800</v>
       </c>
       <c r="H42" s="3">
-        <v>28900</v>
+        <v>30500</v>
       </c>
       <c r="I42" s="3">
-        <v>34500</v>
+        <v>29800</v>
       </c>
       <c r="J42" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K42" s="3">
         <v>56500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43300</v>
+        <v>61100</v>
       </c>
       <c r="E43" s="3">
-        <v>47800</v>
+        <v>44600</v>
       </c>
       <c r="F43" s="3">
-        <v>51400</v>
+        <v>49300</v>
       </c>
       <c r="G43" s="3">
-        <v>47000</v>
+        <v>53000</v>
       </c>
       <c r="H43" s="3">
-        <v>41200</v>
+        <v>48500</v>
       </c>
       <c r="I43" s="3">
         <v>42500</v>
       </c>
       <c r="J43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K43" s="3">
         <v>44800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>280800</v>
+        <v>280500</v>
       </c>
       <c r="E44" s="3">
-        <v>275400</v>
+        <v>289400</v>
       </c>
       <c r="F44" s="3">
-        <v>257200</v>
+        <v>283800</v>
       </c>
       <c r="G44" s="3">
-        <v>240000</v>
+        <v>265000</v>
       </c>
       <c r="H44" s="3">
-        <v>224100</v>
+        <v>247300</v>
       </c>
       <c r="I44" s="3">
-        <v>202500</v>
+        <v>230900</v>
       </c>
       <c r="J44" s="3">
+        <v>208700</v>
+      </c>
+      <c r="K44" s="3">
         <v>191900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>177500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>160800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>161600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27800</v>
+        <v>21300</v>
       </c>
       <c r="E45" s="3">
-        <v>101200</v>
+        <v>28600</v>
       </c>
       <c r="F45" s="3">
-        <v>31300</v>
+        <v>104300</v>
       </c>
       <c r="G45" s="3">
-        <v>37700</v>
+        <v>32200</v>
       </c>
       <c r="H45" s="3">
-        <v>41900</v>
+        <v>38900</v>
       </c>
       <c r="I45" s="3">
-        <v>57300</v>
+        <v>43200</v>
       </c>
       <c r="J45" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K45" s="3">
         <v>33600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>538000</v>
+        <v>538700</v>
       </c>
       <c r="E46" s="3">
-        <v>612900</v>
+        <v>554400</v>
       </c>
       <c r="F46" s="3">
-        <v>593700</v>
+        <v>631500</v>
       </c>
       <c r="G46" s="3">
-        <v>627600</v>
+        <v>611800</v>
       </c>
       <c r="H46" s="3">
-        <v>638400</v>
+        <v>646700</v>
       </c>
       <c r="I46" s="3">
-        <v>644600</v>
+        <v>657900</v>
       </c>
       <c r="J46" s="3">
+        <v>664300</v>
+      </c>
+      <c r="K46" s="3">
         <v>611800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>666700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>520800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>544700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>502300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,49 +2272,55 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4003200</v>
+        <v>4161900</v>
       </c>
       <c r="E48" s="3">
-        <v>3943600</v>
+        <v>4125300</v>
       </c>
       <c r="F48" s="3">
-        <v>4017400</v>
+        <v>4063900</v>
       </c>
       <c r="G48" s="3">
-        <v>3887000</v>
+        <v>4139900</v>
       </c>
       <c r="H48" s="3">
-        <v>3827600</v>
+        <v>4005500</v>
       </c>
       <c r="I48" s="3">
-        <v>4039000</v>
+        <v>3944300</v>
       </c>
       <c r="J48" s="3">
+        <v>4162100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4008100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3965600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3859700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3833800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3736600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93100</v>
+        <v>93000</v>
       </c>
       <c r="E52" s="3">
-        <v>66900</v>
+        <v>95900</v>
       </c>
       <c r="F52" s="3">
-        <v>69300</v>
+        <v>69000</v>
       </c>
       <c r="G52" s="3">
-        <v>72600</v>
+        <v>71400</v>
       </c>
       <c r="H52" s="3">
-        <v>75300</v>
+        <v>74800</v>
       </c>
       <c r="I52" s="3">
-        <v>78100</v>
+        <v>77600</v>
       </c>
       <c r="J52" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K52" s="3">
         <v>79900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4634300</v>
+        <v>4793500</v>
       </c>
       <c r="E54" s="3">
-        <v>4623400</v>
+        <v>4775600</v>
       </c>
       <c r="F54" s="3">
-        <v>4680400</v>
+        <v>4764400</v>
       </c>
       <c r="G54" s="3">
-        <v>4587200</v>
+        <v>4823100</v>
       </c>
       <c r="H54" s="3">
-        <v>4541400</v>
+        <v>4727100</v>
       </c>
       <c r="I54" s="3">
-        <v>4761700</v>
+        <v>4679800</v>
       </c>
       <c r="J54" s="3">
+        <v>4906900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4699800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4717600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4466000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4463100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4326500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>174300</v>
+        <v>176600</v>
       </c>
       <c r="E57" s="3">
-        <v>142300</v>
+        <v>179700</v>
       </c>
       <c r="F57" s="3">
-        <v>177800</v>
+        <v>146600</v>
       </c>
       <c r="G57" s="3">
-        <v>167800</v>
+        <v>183300</v>
       </c>
       <c r="H57" s="3">
-        <v>174000</v>
+        <v>172900</v>
       </c>
       <c r="I57" s="3">
-        <v>150300</v>
+        <v>179300</v>
       </c>
       <c r="J57" s="3">
+        <v>154900</v>
+      </c>
+      <c r="K57" s="3">
         <v>152100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>130400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2553,107 +2687,116 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>131100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26800</v>
+        <v>47400</v>
       </c>
       <c r="E59" s="3">
-        <v>50100</v>
+        <v>27600</v>
       </c>
       <c r="F59" s="3">
-        <v>25100</v>
+        <v>51700</v>
       </c>
       <c r="G59" s="3">
-        <v>18900</v>
+        <v>25800</v>
       </c>
       <c r="H59" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="I59" s="3">
-        <v>24900</v>
+        <v>19700</v>
       </c>
       <c r="J59" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K59" s="3">
         <v>37100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>201600</v>
+        <v>224500</v>
       </c>
       <c r="E60" s="3">
-        <v>193000</v>
+        <v>207800</v>
       </c>
       <c r="F60" s="3">
-        <v>203400</v>
+        <v>198800</v>
       </c>
       <c r="G60" s="3">
-        <v>187100</v>
+        <v>209600</v>
       </c>
       <c r="H60" s="3">
-        <v>193600</v>
+        <v>192800</v>
       </c>
       <c r="I60" s="3">
-        <v>175800</v>
+        <v>199500</v>
       </c>
       <c r="J60" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K60" s="3">
         <v>189900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>296900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>158200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>162200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2682,60 +2825,66 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>127400</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>943100</v>
+        <v>1007600</v>
       </c>
       <c r="E62" s="3">
-        <v>914900</v>
+        <v>971800</v>
       </c>
       <c r="F62" s="3">
-        <v>941500</v>
+        <v>942800</v>
       </c>
       <c r="G62" s="3">
-        <v>882100</v>
+        <v>970200</v>
       </c>
       <c r="H62" s="3">
-        <v>844100</v>
+        <v>909000</v>
       </c>
       <c r="I62" s="3">
-        <v>849100</v>
+        <v>869800</v>
       </c>
       <c r="J62" s="3">
+        <v>875000</v>
+      </c>
+      <c r="K62" s="3">
         <v>824700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>808100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>778900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>791900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>731000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1144700</v>
+        <v>1232200</v>
       </c>
       <c r="E66" s="3">
-        <v>1107800</v>
+        <v>1179600</v>
       </c>
       <c r="F66" s="3">
-        <v>1144900</v>
+        <v>1141600</v>
       </c>
       <c r="G66" s="3">
-        <v>1069200</v>
+        <v>1179800</v>
       </c>
       <c r="H66" s="3">
-        <v>1037700</v>
+        <v>1101800</v>
       </c>
       <c r="I66" s="3">
-        <v>1024900</v>
+        <v>1069300</v>
       </c>
       <c r="J66" s="3">
+        <v>1056100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1014500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1105000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1043000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1077500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>893200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1380400</v>
+        <v>-1437400</v>
       </c>
       <c r="E72" s="3">
-        <v>-1379000</v>
+        <v>-1422500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1355300</v>
+        <v>-1421000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1383000</v>
+        <v>-1396700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1404300</v>
+        <v>-1425200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1172200</v>
+        <v>-1447100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1207900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1238200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3489600</v>
+        <v>3561400</v>
       </c>
       <c r="E76" s="3">
-        <v>3515600</v>
+        <v>3596000</v>
       </c>
       <c r="F76" s="3">
-        <v>3535500</v>
+        <v>3622800</v>
       </c>
       <c r="G76" s="3">
-        <v>3518000</v>
+        <v>3643300</v>
       </c>
       <c r="H76" s="3">
-        <v>3503700</v>
+        <v>3625300</v>
       </c>
       <c r="I76" s="3">
-        <v>3736800</v>
+        <v>3610500</v>
       </c>
       <c r="J76" s="3">
+        <v>3850800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3685300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3612700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3423000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3385600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3433300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8300</v>
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-11000</v>
+        <v>8500</v>
       </c>
       <c r="F81" s="3">
-        <v>38100</v>
+        <v>-11300</v>
       </c>
       <c r="G81" s="3">
-        <v>32400</v>
+        <v>39300</v>
       </c>
       <c r="H81" s="3">
-        <v>-222900</v>
+        <v>33400</v>
       </c>
       <c r="I81" s="3">
-        <v>66200</v>
+        <v>-229700</v>
       </c>
       <c r="J81" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K81" s="3">
         <v>99400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>88600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>49400</v>
+        <v>66500</v>
       </c>
       <c r="E83" s="3">
-        <v>48900</v>
+        <v>50900</v>
       </c>
       <c r="F83" s="3">
-        <v>55800</v>
+        <v>50300</v>
       </c>
       <c r="G83" s="3">
-        <v>54800</v>
+        <v>57500</v>
       </c>
       <c r="H83" s="3">
-        <v>54000</v>
+        <v>56500</v>
       </c>
       <c r="I83" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="J83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K83" s="3">
         <v>60100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>56300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97800</v>
+        <v>98600</v>
       </c>
       <c r="E89" s="3">
-        <v>60100</v>
+        <v>100800</v>
       </c>
       <c r="F89" s="3">
-        <v>113900</v>
+        <v>61900</v>
       </c>
       <c r="G89" s="3">
-        <v>106500</v>
+        <v>117300</v>
       </c>
       <c r="H89" s="3">
-        <v>112100</v>
+        <v>109700</v>
       </c>
       <c r="I89" s="3">
-        <v>128300</v>
+        <v>115500</v>
       </c>
       <c r="J89" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K89" s="3">
         <v>169800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>170600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>99100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +3953,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-89200</v>
+        <v>-96700</v>
       </c>
       <c r="E91" s="3">
-        <v>-112800</v>
+        <v>-91900</v>
       </c>
       <c r="F91" s="3">
-        <v>296700</v>
+        <v>-116300</v>
       </c>
       <c r="G91" s="3">
-        <v>-115300</v>
+        <v>305800</v>
       </c>
       <c r="H91" s="3">
-        <v>-107900</v>
+        <v>-118800</v>
       </c>
       <c r="I91" s="3">
-        <v>-93800</v>
+        <v>-111200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-96700</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3766,16 +3987,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-69800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-92900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86200</v>
+        <v>-98300</v>
       </c>
       <c r="E94" s="3">
-        <v>-112800</v>
+        <v>-88800</v>
       </c>
       <c r="F94" s="3">
-        <v>-143800</v>
+        <v>-116300</v>
       </c>
       <c r="G94" s="3">
-        <v>-117600</v>
+        <v>-148200</v>
       </c>
       <c r="H94" s="3">
-        <v>-107300</v>
+        <v>-121200</v>
       </c>
       <c r="I94" s="3">
-        <v>-92800</v>
+        <v>-110500</v>
       </c>
       <c r="J94" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-110400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-150400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-95900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-11500</v>
       </c>
-      <c r="E96" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-11200</v>
-      </c>
       <c r="H96" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="I96" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="J96" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-7000</v>
       </c>
       <c r="L96" s="3">
         <v>-7000</v>
       </c>
       <c r="M96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-5000</v>
       </c>
       <c r="O96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14600</v>
+        <v>-5500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10300</v>
+        <v>-15000</v>
       </c>
       <c r="F100" s="3">
-        <v>-20000</v>
+        <v>-10700</v>
       </c>
       <c r="G100" s="3">
-        <v>-17100</v>
+        <v>-20600</v>
       </c>
       <c r="H100" s="3">
-        <v>-11000</v>
+        <v>-17600</v>
       </c>
       <c r="I100" s="3">
-        <v>-13100</v>
+        <v>-11300</v>
       </c>
       <c r="J100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-129000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>121300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="N101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>600</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3500</v>
+        <v>-6400</v>
       </c>
       <c r="E102" s="3">
-        <v>-62400</v>
+        <v>-3600</v>
       </c>
       <c r="F102" s="3">
-        <v>-50300</v>
+        <v>-64300</v>
       </c>
       <c r="G102" s="3">
-        <v>-29100</v>
+        <v>-51800</v>
       </c>
       <c r="H102" s="3">
-        <v>-5600</v>
+        <v>-30000</v>
       </c>
       <c r="I102" s="3">
-        <v>22900</v>
+        <v>-5700</v>
       </c>
       <c r="J102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>95000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>284500</v>
+        <v>320600</v>
       </c>
       <c r="E8" s="3">
-        <v>254600</v>
+        <v>295300</v>
       </c>
       <c r="F8" s="3">
-        <v>245700</v>
+        <v>264400</v>
       </c>
       <c r="G8" s="3">
-        <v>270500</v>
+        <v>255100</v>
       </c>
       <c r="H8" s="3">
-        <v>263700</v>
+        <v>280800</v>
       </c>
       <c r="I8" s="3">
-        <v>259800</v>
+        <v>273800</v>
       </c>
       <c r="J8" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K8" s="3">
         <v>302900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>292900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>284900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>160800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>225300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>236900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>142000</v>
+        <v>149100</v>
       </c>
       <c r="E9" s="3">
-        <v>121700</v>
+        <v>147400</v>
       </c>
       <c r="F9" s="3">
-        <v>130100</v>
+        <v>126400</v>
       </c>
       <c r="G9" s="3">
-        <v>126800</v>
+        <v>135100</v>
       </c>
       <c r="H9" s="3">
-        <v>116000</v>
+        <v>131600</v>
       </c>
       <c r="I9" s="3">
-        <v>113300</v>
+        <v>120400</v>
       </c>
       <c r="J9" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K9" s="3">
         <v>127600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>88700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>116900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>142500</v>
+        <v>171600</v>
       </c>
       <c r="E10" s="3">
-        <v>132900</v>
+        <v>147900</v>
       </c>
       <c r="F10" s="3">
-        <v>115600</v>
+        <v>138000</v>
       </c>
       <c r="G10" s="3">
-        <v>143700</v>
+        <v>120000</v>
       </c>
       <c r="H10" s="3">
-        <v>147700</v>
+        <v>149200</v>
       </c>
       <c r="I10" s="3">
-        <v>146500</v>
+        <v>153300</v>
       </c>
       <c r="J10" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K10" s="3">
         <v>175300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>177400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>117200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>120000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
-        <v>9300</v>
+        <v>6500</v>
       </c>
       <c r="F12" s="3">
-        <v>5500</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
         <v>5700</v>
       </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>5900</v>
       </c>
       <c r="I12" s="3">
         <v>5100</v>
       </c>
       <c r="J12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +985,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>29700</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3">
-        <v>50900</v>
+        <v>30800</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>52800</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>299900</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>311400</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>8300</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>66500</v>
+        <v>63100</v>
       </c>
       <c r="E15" s="3">
-        <v>50900</v>
+        <v>69000</v>
       </c>
       <c r="F15" s="3">
-        <v>50300</v>
+        <v>52800</v>
       </c>
       <c r="G15" s="3">
-        <v>57500</v>
+        <v>52300</v>
       </c>
       <c r="H15" s="3">
-        <v>56500</v>
+        <v>59700</v>
       </c>
       <c r="I15" s="3">
-        <v>55700</v>
+        <v>58600</v>
       </c>
       <c r="J15" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K15" s="3">
         <v>57900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>60100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>56900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>34700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>45100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>56300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>244700</v>
+        <v>235500</v>
       </c>
       <c r="E17" s="3">
-        <v>220400</v>
+        <v>254000</v>
       </c>
       <c r="F17" s="3">
-        <v>253300</v>
+        <v>228800</v>
       </c>
       <c r="G17" s="3">
-        <v>204200</v>
+        <v>263000</v>
       </c>
       <c r="H17" s="3">
-        <v>187400</v>
+        <v>212000</v>
       </c>
       <c r="I17" s="3">
-        <v>485400</v>
+        <v>194500</v>
       </c>
       <c r="J17" s="3">
+        <v>504000</v>
+      </c>
+      <c r="K17" s="3">
         <v>201200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>187800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>166500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>183900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>39800</v>
+        <v>85200</v>
       </c>
       <c r="E18" s="3">
-        <v>34200</v>
+        <v>41300</v>
       </c>
       <c r="F18" s="3">
-        <v>-7600</v>
+        <v>35500</v>
       </c>
       <c r="G18" s="3">
-        <v>66300</v>
+        <v>-7900</v>
       </c>
       <c r="H18" s="3">
-        <v>76300</v>
+        <v>68900</v>
       </c>
       <c r="I18" s="3">
-        <v>-225600</v>
+        <v>79200</v>
       </c>
       <c r="J18" s="3">
+        <v>-234200</v>
+      </c>
+      <c r="K18" s="3">
         <v>101600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>-12400</v>
       </c>
       <c r="E20" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-11500</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3">
-        <v>-8300</v>
+        <v>-11900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1300</v>
+        <v>-8600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4400</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>111600</v>
+        <v>135800</v>
       </c>
       <c r="E21" s="3">
-        <v>91100</v>
+        <v>115900</v>
       </c>
       <c r="F21" s="3">
-        <v>31300</v>
+        <v>94600</v>
       </c>
       <c r="G21" s="3">
-        <v>115600</v>
+        <v>32500</v>
       </c>
       <c r="H21" s="3">
-        <v>131400</v>
+        <v>120000</v>
       </c>
       <c r="I21" s="3">
-        <v>-174300</v>
+        <v>136500</v>
       </c>
       <c r="J21" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="K21" s="3">
         <v>158000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>170400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>42300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>96700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45100</v>
+        <v>72700</v>
       </c>
       <c r="E23" s="3">
-        <v>40200</v>
+        <v>46900</v>
       </c>
       <c r="F23" s="3">
-        <v>-19000</v>
+        <v>41800</v>
       </c>
       <c r="G23" s="3">
-        <v>58100</v>
+        <v>-19800</v>
       </c>
       <c r="H23" s="3">
-        <v>75000</v>
+        <v>60300</v>
       </c>
       <c r="I23" s="3">
-        <v>-230000</v>
+        <v>77800</v>
       </c>
       <c r="J23" s="3">
+        <v>-238800</v>
+      </c>
+      <c r="K23" s="3">
         <v>100000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>51600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>16600</v>
       </c>
       <c r="E24" s="3">
-        <v>31700</v>
+        <v>48800</v>
       </c>
       <c r="F24" s="3">
-        <v>-7700</v>
+        <v>32900</v>
       </c>
       <c r="G24" s="3">
-        <v>18800</v>
+        <v>-8000</v>
       </c>
       <c r="H24" s="3">
-        <v>41600</v>
+        <v>19500</v>
       </c>
       <c r="I24" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
-        <v>8500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-11300</v>
+        <v>8800</v>
       </c>
       <c r="G26" s="3">
-        <v>39300</v>
+        <v>-11800</v>
       </c>
       <c r="H26" s="3">
-        <v>33400</v>
+        <v>40800</v>
       </c>
       <c r="I26" s="3">
-        <v>-229700</v>
+        <v>34700</v>
       </c>
       <c r="J26" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="K26" s="3">
         <v>68200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>99400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>88600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
-        <v>8500</v>
-      </c>
       <c r="F27" s="3">
-        <v>-11300</v>
+        <v>8800</v>
       </c>
       <c r="G27" s="3">
-        <v>39300</v>
+        <v>-11800</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>40800</v>
       </c>
       <c r="I27" s="3">
-        <v>-229700</v>
+        <v>34700</v>
       </c>
       <c r="J27" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="K27" s="3">
         <v>68200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>99400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>88600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>12400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6000</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>11500</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3">
-        <v>8300</v>
+        <v>11900</v>
       </c>
       <c r="H32" s="3">
-        <v>1300</v>
+        <v>8600</v>
       </c>
       <c r="I32" s="3">
-        <v>4400</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
-        <v>8500</v>
-      </c>
       <c r="F33" s="3">
-        <v>-11300</v>
+        <v>8800</v>
       </c>
       <c r="G33" s="3">
-        <v>39300</v>
+        <v>-11800</v>
       </c>
       <c r="H33" s="3">
-        <v>33400</v>
+        <v>40800</v>
       </c>
       <c r="I33" s="3">
-        <v>-229700</v>
+        <v>34700</v>
       </c>
       <c r="J33" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="K33" s="3">
         <v>68200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>99400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>88600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
-        <v>8500</v>
-      </c>
       <c r="F35" s="3">
-        <v>-11300</v>
+        <v>8800</v>
       </c>
       <c r="G35" s="3">
-        <v>39300</v>
+        <v>-11800</v>
       </c>
       <c r="H35" s="3">
-        <v>33400</v>
+        <v>40800</v>
       </c>
       <c r="I35" s="3">
-        <v>-229700</v>
+        <v>34700</v>
       </c>
       <c r="J35" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="K35" s="3">
         <v>68200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>99400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>88600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,272 +2052,291 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>155400</v>
+        <v>179500</v>
       </c>
       <c r="E41" s="3">
-        <v>161800</v>
+        <v>161400</v>
       </c>
       <c r="F41" s="3">
-        <v>165400</v>
+        <v>168000</v>
       </c>
       <c r="G41" s="3">
-        <v>229700</v>
+        <v>171700</v>
       </c>
       <c r="H41" s="3">
-        <v>281500</v>
+        <v>238500</v>
       </c>
       <c r="I41" s="3">
-        <v>311500</v>
+        <v>292300</v>
       </c>
       <c r="J41" s="3">
+        <v>323400</v>
+      </c>
+      <c r="K41" s="3">
         <v>317200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>285000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>357500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>256500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>273500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>232900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20400</v>
+        <v>25700</v>
       </c>
       <c r="E42" s="3">
-        <v>30000</v>
+        <v>21200</v>
       </c>
       <c r="F42" s="3">
-        <v>28800</v>
+        <v>31100</v>
       </c>
       <c r="G42" s="3">
-        <v>31800</v>
+        <v>29900</v>
       </c>
       <c r="H42" s="3">
-        <v>30500</v>
+        <v>33000</v>
       </c>
       <c r="I42" s="3">
-        <v>29800</v>
+        <v>31700</v>
       </c>
       <c r="J42" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K42" s="3">
         <v>35600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>52200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61100</v>
+        <v>51400</v>
       </c>
       <c r="E43" s="3">
-        <v>44600</v>
+        <v>63500</v>
       </c>
       <c r="F43" s="3">
-        <v>49300</v>
+        <v>46300</v>
       </c>
       <c r="G43" s="3">
-        <v>53000</v>
+        <v>51200</v>
       </c>
       <c r="H43" s="3">
-        <v>48500</v>
+        <v>55000</v>
       </c>
       <c r="I43" s="3">
-        <v>42500</v>
+        <v>50300</v>
       </c>
       <c r="J43" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K43" s="3">
         <v>43800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>280500</v>
+        <v>323800</v>
       </c>
       <c r="E44" s="3">
-        <v>289400</v>
+        <v>291200</v>
       </c>
       <c r="F44" s="3">
-        <v>283800</v>
+        <v>300500</v>
       </c>
       <c r="G44" s="3">
-        <v>265000</v>
+        <v>294700</v>
       </c>
       <c r="H44" s="3">
-        <v>247300</v>
+        <v>275200</v>
       </c>
       <c r="I44" s="3">
-        <v>230900</v>
+        <v>256800</v>
       </c>
       <c r="J44" s="3">
+        <v>239800</v>
+      </c>
+      <c r="K44" s="3">
         <v>208700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>177500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>160800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>168100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>161600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21300</v>
+        <v>29300</v>
       </c>
       <c r="E45" s="3">
-        <v>28600</v>
+        <v>22100</v>
       </c>
       <c r="F45" s="3">
-        <v>104300</v>
+        <v>29700</v>
       </c>
       <c r="G45" s="3">
-        <v>32200</v>
+        <v>108300</v>
       </c>
       <c r="H45" s="3">
-        <v>38900</v>
+        <v>33500</v>
       </c>
       <c r="I45" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="J45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K45" s="3">
         <v>59000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>538700</v>
+        <v>609800</v>
       </c>
       <c r="E46" s="3">
-        <v>554400</v>
+        <v>559300</v>
       </c>
       <c r="F46" s="3">
-        <v>631500</v>
+        <v>575600</v>
       </c>
       <c r="G46" s="3">
+        <v>655700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>635200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>671400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>683100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>664300</v>
+      </c>
+      <c r="L46" s="3">
         <v>611800</v>
       </c>
-      <c r="H46" s="3">
-        <v>646700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>657900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>664300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>611800</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>666700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>520800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>544700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>502300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4161900</v>
+        <v>4388400</v>
       </c>
       <c r="E48" s="3">
-        <v>4125300</v>
+        <v>4320900</v>
       </c>
       <c r="F48" s="3">
-        <v>4063900</v>
+        <v>4282900</v>
       </c>
       <c r="G48" s="3">
-        <v>4139900</v>
+        <v>4219200</v>
       </c>
       <c r="H48" s="3">
-        <v>4005500</v>
+        <v>4298100</v>
       </c>
       <c r="I48" s="3">
-        <v>3944300</v>
+        <v>4158600</v>
       </c>
       <c r="J48" s="3">
+        <v>4095000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4162100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4008100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3965600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3859700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3833800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3736600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>93000</v>
+        <v>82100</v>
       </c>
       <c r="E52" s="3">
-        <v>95900</v>
+        <v>96500</v>
       </c>
       <c r="F52" s="3">
-        <v>69000</v>
+        <v>99600</v>
       </c>
       <c r="G52" s="3">
-        <v>71400</v>
+        <v>71600</v>
       </c>
       <c r="H52" s="3">
-        <v>74800</v>
+        <v>74100</v>
       </c>
       <c r="I52" s="3">
-        <v>77600</v>
+        <v>77700</v>
       </c>
       <c r="J52" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K52" s="3">
         <v>80400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4793500</v>
+        <v>5080300</v>
       </c>
       <c r="E54" s="3">
-        <v>4775600</v>
+        <v>4976800</v>
       </c>
       <c r="F54" s="3">
-        <v>4764400</v>
+        <v>4958100</v>
       </c>
       <c r="G54" s="3">
-        <v>4823100</v>
+        <v>4946500</v>
       </c>
       <c r="H54" s="3">
-        <v>4727100</v>
+        <v>5007400</v>
       </c>
       <c r="I54" s="3">
-        <v>4679800</v>
+        <v>4907800</v>
       </c>
       <c r="J54" s="3">
+        <v>4858700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4906900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4699800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4717600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4466000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4463100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4326500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2748,197 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176600</v>
+        <v>204100</v>
       </c>
       <c r="E57" s="3">
-        <v>179700</v>
+        <v>183300</v>
       </c>
       <c r="F57" s="3">
-        <v>146600</v>
+        <v>186500</v>
       </c>
       <c r="G57" s="3">
-        <v>183300</v>
+        <v>152200</v>
       </c>
       <c r="H57" s="3">
-        <v>172900</v>
+        <v>190300</v>
       </c>
       <c r="I57" s="3">
-        <v>179300</v>
+        <v>179500</v>
       </c>
       <c r="J57" s="3">
+        <v>186100</v>
+      </c>
+      <c r="K57" s="3">
         <v>154900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>152100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>130400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>131700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>150700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>131100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47400</v>
+        <v>46900</v>
       </c>
       <c r="E59" s="3">
-        <v>27600</v>
+        <v>49200</v>
       </c>
       <c r="F59" s="3">
-        <v>51700</v>
+        <v>28600</v>
       </c>
       <c r="G59" s="3">
-        <v>25800</v>
+        <v>53600</v>
       </c>
       <c r="H59" s="3">
-        <v>19400</v>
+        <v>26800</v>
       </c>
       <c r="I59" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="J59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K59" s="3">
         <v>25700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>224500</v>
+        <v>251500</v>
       </c>
       <c r="E60" s="3">
-        <v>207800</v>
+        <v>233100</v>
       </c>
       <c r="F60" s="3">
-        <v>198800</v>
+        <v>215700</v>
       </c>
       <c r="G60" s="3">
-        <v>209600</v>
+        <v>206400</v>
       </c>
       <c r="H60" s="3">
-        <v>192800</v>
+        <v>217600</v>
       </c>
       <c r="I60" s="3">
-        <v>199500</v>
+        <v>200200</v>
       </c>
       <c r="J60" s="3">
+        <v>207100</v>
+      </c>
+      <c r="K60" s="3">
         <v>181100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>189900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>296900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>136700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>158200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>162200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2828,63 +2970,69 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>127400</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1007600</v>
+        <v>1066300</v>
       </c>
       <c r="E62" s="3">
-        <v>971800</v>
+        <v>1046200</v>
       </c>
       <c r="F62" s="3">
-        <v>942800</v>
+        <v>1009000</v>
       </c>
       <c r="G62" s="3">
-        <v>970200</v>
+        <v>978800</v>
       </c>
       <c r="H62" s="3">
-        <v>909000</v>
+        <v>1007300</v>
       </c>
       <c r="I62" s="3">
-        <v>869800</v>
+        <v>943700</v>
       </c>
       <c r="J62" s="3">
+        <v>903000</v>
+      </c>
+      <c r="K62" s="3">
         <v>875000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>824700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>808100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>778900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>791900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>731000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1232200</v>
+        <v>1317900</v>
       </c>
       <c r="E66" s="3">
-        <v>1179600</v>
+        <v>1279300</v>
       </c>
       <c r="F66" s="3">
-        <v>1141600</v>
+        <v>1224700</v>
       </c>
       <c r="G66" s="3">
-        <v>1179800</v>
+        <v>1185300</v>
       </c>
       <c r="H66" s="3">
-        <v>1101800</v>
+        <v>1224900</v>
       </c>
       <c r="I66" s="3">
-        <v>1069300</v>
+        <v>1143900</v>
       </c>
       <c r="J66" s="3">
+        <v>1110200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1056100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1014500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1105000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1043000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1077500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>893200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1437400</v>
+        <v>-1449900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1422500</v>
+        <v>-1492300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1421000</v>
+        <v>-1476900</v>
       </c>
       <c r="G72" s="3">
-        <v>-1396700</v>
+        <v>-1475300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1425200</v>
+        <v>-1450000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1447100</v>
+        <v>-1479600</v>
       </c>
       <c r="J72" s="3">
+        <v>-1502400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1207900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1238200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3561400</v>
+        <v>3762500</v>
       </c>
       <c r="E76" s="3">
-        <v>3596000</v>
+        <v>3697500</v>
       </c>
       <c r="F76" s="3">
-        <v>3622800</v>
+        <v>3733400</v>
       </c>
       <c r="G76" s="3">
-        <v>3643300</v>
+        <v>3761200</v>
       </c>
       <c r="H76" s="3">
-        <v>3625300</v>
+        <v>3782500</v>
       </c>
       <c r="I76" s="3">
-        <v>3610500</v>
+        <v>3763800</v>
       </c>
       <c r="J76" s="3">
+        <v>3748500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3850800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3685300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3612700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3423000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3385600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3433300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
-        <v>8500</v>
-      </c>
       <c r="F81" s="3">
-        <v>-11300</v>
+        <v>8800</v>
       </c>
       <c r="G81" s="3">
-        <v>39300</v>
+        <v>-11800</v>
       </c>
       <c r="H81" s="3">
-        <v>33400</v>
+        <v>40800</v>
       </c>
       <c r="I81" s="3">
-        <v>-229700</v>
+        <v>34700</v>
       </c>
       <c r="J81" s="3">
+        <v>-238500</v>
+      </c>
+      <c r="K81" s="3">
         <v>68200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>99400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>88600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>66500</v>
+        <v>63100</v>
       </c>
       <c r="E83" s="3">
-        <v>50900</v>
+        <v>69000</v>
       </c>
       <c r="F83" s="3">
-        <v>50300</v>
+        <v>52800</v>
       </c>
       <c r="G83" s="3">
-        <v>57500</v>
+        <v>52300</v>
       </c>
       <c r="H83" s="3">
-        <v>56500</v>
+        <v>59700</v>
       </c>
       <c r="I83" s="3">
-        <v>55700</v>
+        <v>58600</v>
       </c>
       <c r="J83" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K83" s="3">
         <v>57900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>60100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>56300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>98600</v>
+        <v>141500</v>
       </c>
       <c r="E89" s="3">
-        <v>100800</v>
+        <v>102300</v>
       </c>
       <c r="F89" s="3">
-        <v>61900</v>
+        <v>104700</v>
       </c>
       <c r="G89" s="3">
-        <v>117300</v>
+        <v>64300</v>
       </c>
       <c r="H89" s="3">
-        <v>109700</v>
+        <v>121800</v>
       </c>
       <c r="I89" s="3">
-        <v>115500</v>
+        <v>113900</v>
       </c>
       <c r="J89" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K89" s="3">
         <v>132200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>169800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>170600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>99100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,35 +4173,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-117300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>317500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-115500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-96700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-91900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-116300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>305800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-118800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-111200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-96700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3990,16 +4210,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-69800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-92900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-98300</v>
+        <v>-117400</v>
       </c>
       <c r="E94" s="3">
-        <v>-88800</v>
+        <v>-102000</v>
       </c>
       <c r="F94" s="3">
-        <v>-116300</v>
+        <v>-92200</v>
       </c>
       <c r="G94" s="3">
-        <v>-148200</v>
+        <v>-120700</v>
       </c>
       <c r="H94" s="3">
-        <v>-121200</v>
+        <v>-153900</v>
       </c>
       <c r="I94" s="3">
-        <v>-110500</v>
+        <v>-125800</v>
       </c>
       <c r="J94" s="3">
+        <v>-114800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-95600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-150400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-95900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4380,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11600</v>
+        <v>-12200</v>
       </c>
       <c r="E96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11900</v>
       </c>
-      <c r="F96" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11500</v>
       </c>
-      <c r="H96" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-7000</v>
       </c>
       <c r="M96" s="3">
         <v>-7000</v>
       </c>
       <c r="N96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-5000</v>
       </c>
       <c r="P96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5500</v>
+        <v>-6900</v>
       </c>
       <c r="E100" s="3">
-        <v>-15000</v>
+        <v>-5700</v>
       </c>
       <c r="F100" s="3">
-        <v>-10700</v>
+        <v>-15600</v>
       </c>
       <c r="G100" s="3">
-        <v>-20600</v>
+        <v>-11100</v>
       </c>
       <c r="H100" s="3">
-        <v>-17600</v>
+        <v>-21400</v>
       </c>
       <c r="I100" s="3">
-        <v>-11300</v>
+        <v>-18300</v>
       </c>
       <c r="J100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-13500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-129000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>121300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>400</v>
+      </c>
+      <c r="L101" s="3">
+        <v>300</v>
+      </c>
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>600</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6400</v>
+        <v>18100</v>
       </c>
       <c r="E102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="M102" s="3">
+        <v>95000</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>40600</v>
+      </c>
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
-        <v>-64300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-51800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>23600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-69300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>95000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>40600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>320600</v>
+        <v>339500</v>
       </c>
       <c r="E8" s="3">
-        <v>295300</v>
+        <v>313100</v>
       </c>
       <c r="F8" s="3">
-        <v>264400</v>
+        <v>288400</v>
       </c>
       <c r="G8" s="3">
-        <v>255100</v>
+        <v>258100</v>
       </c>
       <c r="H8" s="3">
-        <v>280800</v>
+        <v>249100</v>
       </c>
       <c r="I8" s="3">
-        <v>273800</v>
+        <v>274200</v>
       </c>
       <c r="J8" s="3">
+        <v>267300</v>
+      </c>
+      <c r="K8" s="3">
         <v>269800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>302900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>292900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>284900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>160800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>225300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>236900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>149100</v>
+        <v>147000</v>
       </c>
       <c r="E9" s="3">
-        <v>147400</v>
+        <v>145500</v>
       </c>
       <c r="F9" s="3">
-        <v>126400</v>
+        <v>143900</v>
       </c>
       <c r="G9" s="3">
-        <v>135100</v>
+        <v>123400</v>
       </c>
       <c r="H9" s="3">
-        <v>131600</v>
+        <v>131900</v>
       </c>
       <c r="I9" s="3">
-        <v>120400</v>
+        <v>128500</v>
       </c>
       <c r="J9" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K9" s="3">
         <v>117700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>88700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>116900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>171600</v>
+        <v>192500</v>
       </c>
       <c r="E10" s="3">
-        <v>147900</v>
+        <v>167500</v>
       </c>
       <c r="F10" s="3">
-        <v>138000</v>
+        <v>144500</v>
       </c>
       <c r="G10" s="3">
+        <v>134700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>117200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>145700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>152100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>175300</v>
+      </c>
+      <c r="M10" s="3">
+        <v>177400</v>
+      </c>
+      <c r="N10" s="3">
+        <v>181800</v>
+      </c>
+      <c r="O10" s="3">
+        <v>72100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>117200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>120000</v>
       </c>
-      <c r="H10" s="3">
-        <v>149200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>153300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>152100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>175300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>177400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>181800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>72100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>117200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>120000</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="E12" s="3">
-        <v>6500</v>
+        <v>3500</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>9500</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -997,93 +1017,99 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>30800</v>
+        <v>15700</v>
       </c>
       <c r="G14" s="3">
-        <v>52800</v>
+        <v>30100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>51600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>311400</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="E15" s="3">
-        <v>69000</v>
+        <v>61600</v>
       </c>
       <c r="F15" s="3">
-        <v>52800</v>
+        <v>67400</v>
       </c>
       <c r="G15" s="3">
-        <v>52300</v>
+        <v>51600</v>
       </c>
       <c r="H15" s="3">
-        <v>59700</v>
+        <v>51000</v>
       </c>
       <c r="I15" s="3">
-        <v>58600</v>
+        <v>58300</v>
       </c>
       <c r="J15" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K15" s="3">
         <v>57800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>57900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>60100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>56900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>34700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>56300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235500</v>
+        <v>238300</v>
       </c>
       <c r="E17" s="3">
-        <v>254000</v>
+        <v>229900</v>
       </c>
       <c r="F17" s="3">
-        <v>228800</v>
+        <v>248000</v>
       </c>
       <c r="G17" s="3">
-        <v>263000</v>
+        <v>223400</v>
       </c>
       <c r="H17" s="3">
-        <v>212000</v>
+        <v>256800</v>
       </c>
       <c r="I17" s="3">
-        <v>194500</v>
+        <v>207000</v>
       </c>
       <c r="J17" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K17" s="3">
         <v>504000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>201200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>187800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>170100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>183900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85200</v>
+        <v>101300</v>
       </c>
       <c r="E18" s="3">
-        <v>41300</v>
+        <v>83200</v>
       </c>
       <c r="F18" s="3">
-        <v>35500</v>
+        <v>40400</v>
       </c>
       <c r="G18" s="3">
-        <v>-7900</v>
+        <v>34700</v>
       </c>
       <c r="H18" s="3">
-        <v>68900</v>
+        <v>-7700</v>
       </c>
       <c r="I18" s="3">
-        <v>79200</v>
+        <v>67200</v>
       </c>
       <c r="J18" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-234200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>101600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>58800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12400</v>
+        <v>-3800</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>-12200</v>
       </c>
       <c r="F20" s="3">
-        <v>6200</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>-11900</v>
+        <v>6100</v>
       </c>
       <c r="H20" s="3">
-        <v>-8600</v>
+        <v>-11600</v>
       </c>
       <c r="I20" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>135800</v>
+        <v>160000</v>
       </c>
       <c r="E21" s="3">
-        <v>115900</v>
+        <v>132600</v>
       </c>
       <c r="F21" s="3">
-        <v>94600</v>
+        <v>113100</v>
       </c>
       <c r="G21" s="3">
-        <v>32500</v>
+        <v>92300</v>
       </c>
       <c r="H21" s="3">
-        <v>120000</v>
+        <v>31700</v>
       </c>
       <c r="I21" s="3">
-        <v>136500</v>
+        <v>117200</v>
       </c>
       <c r="J21" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-181000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>171000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>170400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>42300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>96700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72700</v>
+        <v>97500</v>
       </c>
       <c r="E23" s="3">
-        <v>46900</v>
+        <v>71000</v>
       </c>
       <c r="F23" s="3">
-        <v>41800</v>
+        <v>45800</v>
       </c>
       <c r="G23" s="3">
-        <v>-19800</v>
+        <v>40800</v>
       </c>
       <c r="H23" s="3">
-        <v>60300</v>
+        <v>-19300</v>
       </c>
       <c r="I23" s="3">
-        <v>77800</v>
+        <v>58900</v>
       </c>
       <c r="J23" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-238800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>112000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>51600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16600</v>
+        <v>32100</v>
       </c>
       <c r="E24" s="3">
-        <v>48800</v>
+        <v>16200</v>
       </c>
       <c r="F24" s="3">
-        <v>32900</v>
+        <v>47700</v>
       </c>
       <c r="G24" s="3">
-        <v>-8000</v>
+        <v>32100</v>
       </c>
       <c r="H24" s="3">
-        <v>19500</v>
+        <v>-7800</v>
       </c>
       <c r="I24" s="3">
-        <v>43100</v>
+        <v>19000</v>
       </c>
       <c r="J24" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56100</v>
+        <v>65300</v>
       </c>
       <c r="E26" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>8800</v>
-      </c>
       <c r="G26" s="3">
-        <v>-11800</v>
+        <v>8600</v>
       </c>
       <c r="H26" s="3">
-        <v>40800</v>
+        <v>-11500</v>
       </c>
       <c r="I26" s="3">
-        <v>34700</v>
+        <v>39800</v>
       </c>
       <c r="J26" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-238500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>68200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>88600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56100</v>
+        <v>65300</v>
       </c>
       <c r="E27" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
-        <v>8800</v>
-      </c>
       <c r="G27" s="3">
-        <v>-11800</v>
+        <v>8600</v>
       </c>
       <c r="H27" s="3">
-        <v>40800</v>
+        <v>-11500</v>
       </c>
       <c r="I27" s="3">
-        <v>34700</v>
+        <v>39800</v>
       </c>
       <c r="J27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-238500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>88600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12400</v>
+        <v>3800</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>12200</v>
       </c>
       <c r="F32" s="3">
-        <v>-6200</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>11900</v>
+        <v>-6100</v>
       </c>
       <c r="H32" s="3">
-        <v>8600</v>
+        <v>11600</v>
       </c>
       <c r="I32" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56100</v>
+        <v>65300</v>
       </c>
       <c r="E33" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
-        <v>8800</v>
-      </c>
       <c r="G33" s="3">
-        <v>-11800</v>
+        <v>8600</v>
       </c>
       <c r="H33" s="3">
-        <v>40800</v>
+        <v>-11500</v>
       </c>
       <c r="I33" s="3">
-        <v>34700</v>
+        <v>39800</v>
       </c>
       <c r="J33" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-238500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>68200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>88600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56100</v>
+        <v>65300</v>
       </c>
       <c r="E35" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
-        <v>8800</v>
-      </c>
       <c r="G35" s="3">
-        <v>-11800</v>
+        <v>8600</v>
       </c>
       <c r="H35" s="3">
-        <v>40800</v>
+        <v>-11500</v>
       </c>
       <c r="I35" s="3">
-        <v>34700</v>
+        <v>39800</v>
       </c>
       <c r="J35" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-238500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>68200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>88600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,290 +2139,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179500</v>
+        <v>180600</v>
       </c>
       <c r="E41" s="3">
-        <v>161400</v>
+        <v>175200</v>
       </c>
       <c r="F41" s="3">
-        <v>168000</v>
+        <v>157500</v>
       </c>
       <c r="G41" s="3">
-        <v>171700</v>
+        <v>164000</v>
       </c>
       <c r="H41" s="3">
-        <v>238500</v>
+        <v>167700</v>
       </c>
       <c r="I41" s="3">
-        <v>292300</v>
+        <v>232900</v>
       </c>
       <c r="J41" s="3">
+        <v>285400</v>
+      </c>
+      <c r="K41" s="3">
         <v>323400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>317200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>285000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>357500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>256500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>273500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>232900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25700</v>
+        <v>34800</v>
       </c>
       <c r="E42" s="3">
-        <v>21200</v>
+        <v>25100</v>
       </c>
       <c r="F42" s="3">
-        <v>31100</v>
+        <v>20700</v>
       </c>
       <c r="G42" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="H42" s="3">
-        <v>33000</v>
+        <v>29200</v>
       </c>
       <c r="I42" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="J42" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K42" s="3">
         <v>31000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>56500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>52200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>51400</v>
+        <v>68200</v>
       </c>
       <c r="E43" s="3">
-        <v>63500</v>
+        <v>50200</v>
       </c>
       <c r="F43" s="3">
-        <v>46300</v>
+        <v>62000</v>
       </c>
       <c r="G43" s="3">
-        <v>51200</v>
+        <v>45200</v>
       </c>
       <c r="H43" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="I43" s="3">
-        <v>50300</v>
+        <v>53700</v>
       </c>
       <c r="J43" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K43" s="3">
         <v>44100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>323800</v>
+        <v>339900</v>
       </c>
       <c r="E44" s="3">
-        <v>291200</v>
+        <v>316200</v>
       </c>
       <c r="F44" s="3">
-        <v>300500</v>
+        <v>284300</v>
       </c>
       <c r="G44" s="3">
-        <v>294700</v>
+        <v>293400</v>
       </c>
       <c r="H44" s="3">
-        <v>275200</v>
+        <v>287700</v>
       </c>
       <c r="I44" s="3">
-        <v>256800</v>
+        <v>268700</v>
       </c>
       <c r="J44" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K44" s="3">
         <v>239800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>208700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>177500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>168100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>161600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>18000</v>
       </c>
       <c r="E45" s="3">
-        <v>22100</v>
+        <v>28600</v>
       </c>
       <c r="F45" s="3">
-        <v>29700</v>
+        <v>21600</v>
       </c>
       <c r="G45" s="3">
-        <v>108300</v>
+        <v>29000</v>
       </c>
       <c r="H45" s="3">
-        <v>33500</v>
+        <v>105700</v>
       </c>
       <c r="I45" s="3">
-        <v>40400</v>
+        <v>32700</v>
       </c>
       <c r="J45" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K45" s="3">
         <v>44800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>609800</v>
+        <v>641500</v>
       </c>
       <c r="E46" s="3">
-        <v>559300</v>
+        <v>595400</v>
       </c>
       <c r="F46" s="3">
-        <v>575600</v>
+        <v>546100</v>
       </c>
       <c r="G46" s="3">
-        <v>655700</v>
+        <v>562000</v>
       </c>
       <c r="H46" s="3">
-        <v>635200</v>
+        <v>640200</v>
       </c>
       <c r="I46" s="3">
-        <v>671400</v>
+        <v>620200</v>
       </c>
       <c r="J46" s="3">
+        <v>655600</v>
+      </c>
+      <c r="K46" s="3">
         <v>683100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>664300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>611800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>666700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>520800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>544700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>502300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4388400</v>
+        <v>4321400</v>
       </c>
       <c r="E48" s="3">
-        <v>4320900</v>
+        <v>4284600</v>
       </c>
       <c r="F48" s="3">
-        <v>4282900</v>
+        <v>4218800</v>
       </c>
       <c r="G48" s="3">
-        <v>4219200</v>
+        <v>4181600</v>
       </c>
       <c r="H48" s="3">
-        <v>4298100</v>
+        <v>4119400</v>
       </c>
       <c r="I48" s="3">
-        <v>4158600</v>
+        <v>4196500</v>
       </c>
       <c r="J48" s="3">
+        <v>4060300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4095000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4162100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4008100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3965600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3859700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3833800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3736600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>82100</v>
+        <v>80700</v>
       </c>
       <c r="E52" s="3">
-        <v>96500</v>
+        <v>80200</v>
       </c>
       <c r="F52" s="3">
-        <v>99600</v>
+        <v>94200</v>
       </c>
       <c r="G52" s="3">
-        <v>71600</v>
+        <v>97200</v>
       </c>
       <c r="H52" s="3">
-        <v>74100</v>
+        <v>69900</v>
       </c>
       <c r="I52" s="3">
-        <v>77700</v>
+        <v>72400</v>
       </c>
       <c r="J52" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K52" s="3">
         <v>80600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5080300</v>
+        <v>5043600</v>
       </c>
       <c r="E54" s="3">
-        <v>4976800</v>
+        <v>4960200</v>
       </c>
       <c r="F54" s="3">
-        <v>4958100</v>
+        <v>4859100</v>
       </c>
       <c r="G54" s="3">
-        <v>4946500</v>
+        <v>4840800</v>
       </c>
       <c r="H54" s="3">
-        <v>5007400</v>
+        <v>4829500</v>
       </c>
       <c r="I54" s="3">
-        <v>4907800</v>
+        <v>4889000</v>
       </c>
       <c r="J54" s="3">
+        <v>4791700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4858700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4906900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4699800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4717600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4466000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4463100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4326500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,196 +2879,209 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>204100</v>
+        <v>180400</v>
       </c>
       <c r="E57" s="3">
-        <v>183300</v>
+        <v>199300</v>
       </c>
       <c r="F57" s="3">
-        <v>186500</v>
+        <v>179000</v>
       </c>
       <c r="G57" s="3">
-        <v>152200</v>
+        <v>182100</v>
       </c>
       <c r="H57" s="3">
-        <v>190300</v>
+        <v>148600</v>
       </c>
       <c r="I57" s="3">
-        <v>179500</v>
+        <v>185800</v>
       </c>
       <c r="J57" s="3">
+        <v>175200</v>
+      </c>
+      <c r="K57" s="3">
         <v>186100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>152100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>130400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>131700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>150700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="N58" s="3">
+        <v>131100</v>
+      </c>
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>131100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46900</v>
+        <v>78800</v>
       </c>
       <c r="E59" s="3">
-        <v>49200</v>
+        <v>45800</v>
       </c>
       <c r="F59" s="3">
-        <v>28600</v>
+        <v>48100</v>
       </c>
       <c r="G59" s="3">
-        <v>53600</v>
+        <v>27900</v>
       </c>
       <c r="H59" s="3">
-        <v>26800</v>
+        <v>52400</v>
       </c>
       <c r="I59" s="3">
-        <v>20200</v>
+        <v>26200</v>
       </c>
       <c r="J59" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K59" s="3">
         <v>20500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251500</v>
+        <v>259700</v>
       </c>
       <c r="E60" s="3">
-        <v>233100</v>
+        <v>245600</v>
       </c>
       <c r="F60" s="3">
-        <v>215700</v>
+        <v>227600</v>
       </c>
       <c r="G60" s="3">
-        <v>206400</v>
+        <v>210600</v>
       </c>
       <c r="H60" s="3">
-        <v>217600</v>
+        <v>201600</v>
       </c>
       <c r="I60" s="3">
-        <v>200200</v>
+        <v>212500</v>
       </c>
       <c r="J60" s="3">
+        <v>195500</v>
+      </c>
+      <c r="K60" s="3">
         <v>207100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>181100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>189900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>296900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>158200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>162200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2973,66 +3116,72 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>127400</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1066300</v>
+        <v>1045600</v>
       </c>
       <c r="E62" s="3">
-        <v>1046200</v>
+        <v>1041100</v>
       </c>
       <c r="F62" s="3">
-        <v>1009000</v>
+        <v>1021400</v>
       </c>
       <c r="G62" s="3">
-        <v>978800</v>
+        <v>985100</v>
       </c>
       <c r="H62" s="3">
-        <v>1007300</v>
+        <v>955700</v>
       </c>
       <c r="I62" s="3">
-        <v>943700</v>
+        <v>983500</v>
       </c>
       <c r="J62" s="3">
+        <v>921400</v>
+      </c>
+      <c r="K62" s="3">
         <v>903000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>875000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>824700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>808100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>778900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>791900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>731000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1317900</v>
+        <v>1305300</v>
       </c>
       <c r="E66" s="3">
-        <v>1279300</v>
+        <v>1286700</v>
       </c>
       <c r="F66" s="3">
-        <v>1224700</v>
+        <v>1249000</v>
       </c>
       <c r="G66" s="3">
-        <v>1185300</v>
+        <v>1195700</v>
       </c>
       <c r="H66" s="3">
-        <v>1224900</v>
+        <v>1157200</v>
       </c>
       <c r="I66" s="3">
-        <v>1143900</v>
+        <v>1196000</v>
       </c>
       <c r="J66" s="3">
+        <v>1116900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1110200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1056100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1014500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1105000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1043000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1077500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>893200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1449900</v>
+        <v>-1363500</v>
       </c>
       <c r="E72" s="3">
-        <v>-1492300</v>
+        <v>-1415600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1476900</v>
+        <v>-1457100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1475300</v>
+        <v>-1441900</v>
       </c>
       <c r="H72" s="3">
-        <v>-1450000</v>
+        <v>-1440500</v>
       </c>
       <c r="I72" s="3">
-        <v>-1479600</v>
+        <v>-1415700</v>
       </c>
       <c r="J72" s="3">
+        <v>-1444600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1502400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1207900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1238200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3762500</v>
+        <v>3738300</v>
       </c>
       <c r="E76" s="3">
-        <v>3697500</v>
+        <v>3673500</v>
       </c>
       <c r="F76" s="3">
-        <v>3733400</v>
+        <v>3610000</v>
       </c>
       <c r="G76" s="3">
-        <v>3761200</v>
+        <v>3645100</v>
       </c>
       <c r="H76" s="3">
-        <v>3782500</v>
+        <v>3672300</v>
       </c>
       <c r="I76" s="3">
-        <v>3763800</v>
+        <v>3693100</v>
       </c>
       <c r="J76" s="3">
+        <v>3674800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3748500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3850800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3685300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3612700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3423000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3385600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3433300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56100</v>
+        <v>65300</v>
       </c>
       <c r="E81" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
-        <v>8800</v>
-      </c>
       <c r="G81" s="3">
-        <v>-11800</v>
+        <v>8600</v>
       </c>
       <c r="H81" s="3">
-        <v>40800</v>
+        <v>-11500</v>
       </c>
       <c r="I81" s="3">
-        <v>34700</v>
+        <v>39800</v>
       </c>
       <c r="J81" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-238500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>68200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>88600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>63100</v>
+        <v>62500</v>
       </c>
       <c r="E83" s="3">
-        <v>69000</v>
+        <v>61600</v>
       </c>
       <c r="F83" s="3">
-        <v>52800</v>
+        <v>67400</v>
       </c>
       <c r="G83" s="3">
-        <v>52300</v>
+        <v>51600</v>
       </c>
       <c r="H83" s="3">
-        <v>59700</v>
+        <v>51000</v>
       </c>
       <c r="I83" s="3">
-        <v>58600</v>
+        <v>58300</v>
       </c>
       <c r="J83" s="3">
+        <v>57200</v>
+      </c>
+      <c r="K83" s="3">
         <v>57800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>56300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>141500</v>
+        <v>127300</v>
       </c>
       <c r="E89" s="3">
-        <v>102300</v>
+        <v>138100</v>
       </c>
       <c r="F89" s="3">
-        <v>104700</v>
+        <v>99900</v>
       </c>
       <c r="G89" s="3">
-        <v>64300</v>
+        <v>102200</v>
       </c>
       <c r="H89" s="3">
-        <v>121800</v>
+        <v>62800</v>
       </c>
       <c r="I89" s="3">
-        <v>113900</v>
+        <v>118900</v>
       </c>
       <c r="J89" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K89" s="3">
         <v>119900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>132200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>169800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>170600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>99100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,38 +4394,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-117300</v>
+        <v>-83800</v>
       </c>
       <c r="E91" s="3">
-        <v>-100400</v>
+        <v>-84800</v>
       </c>
       <c r="F91" s="3">
-        <v>-95400</v>
+        <v>-72600</v>
       </c>
       <c r="G91" s="3">
-        <v>-120700</v>
+        <v>-69000</v>
       </c>
       <c r="H91" s="3">
-        <v>317500</v>
+        <v>-87300</v>
       </c>
       <c r="I91" s="3">
-        <v>-123300</v>
+        <v>-119000</v>
       </c>
       <c r="J91" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-115500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-96700</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4213,16 +4434,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-69800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-92900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117400</v>
+        <v>-114500</v>
       </c>
       <c r="E94" s="3">
-        <v>-102000</v>
+        <v>-114600</v>
       </c>
       <c r="F94" s="3">
-        <v>-92200</v>
+        <v>-99600</v>
       </c>
       <c r="G94" s="3">
-        <v>-120700</v>
+        <v>-90000</v>
       </c>
       <c r="H94" s="3">
-        <v>-153900</v>
+        <v>-117900</v>
       </c>
       <c r="I94" s="3">
-        <v>-125800</v>
+        <v>-150300</v>
       </c>
       <c r="J94" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-114800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-95600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-110400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-150400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="E96" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="F96" s="3">
-        <v>-12300</v>
+        <v>-11700</v>
       </c>
       <c r="G96" s="3">
         <v>-12000</v>
       </c>
       <c r="H96" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-7000</v>
       </c>
       <c r="N96" s="3">
         <v>-7000</v>
       </c>
       <c r="O96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-5000</v>
       </c>
       <c r="Q96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6900</v>
+        <v>-7600</v>
       </c>
       <c r="E100" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="F100" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-129000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>121300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-600</v>
-      </c>
       <c r="G101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18100</v>
+        <v>5400</v>
       </c>
       <c r="E102" s="3">
-        <v>-6600</v>
+        <v>17700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3700</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>-66800</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
-        <v>-53800</v>
+        <v>-65200</v>
       </c>
       <c r="I102" s="3">
-        <v>-31100</v>
+        <v>-52500</v>
       </c>
       <c r="J102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>95000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>339500</v>
+        <v>352500</v>
       </c>
       <c r="E8" s="3">
-        <v>313100</v>
+        <v>339700</v>
       </c>
       <c r="F8" s="3">
-        <v>288400</v>
+        <v>313200</v>
       </c>
       <c r="G8" s="3">
-        <v>258100</v>
+        <v>288500</v>
       </c>
       <c r="H8" s="3">
-        <v>249100</v>
+        <v>258300</v>
       </c>
       <c r="I8" s="3">
-        <v>274200</v>
+        <v>249200</v>
       </c>
       <c r="J8" s="3">
+        <v>274300</v>
+      </c>
+      <c r="K8" s="3">
         <v>267300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>269800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>302900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>292900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>284900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>160800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>225300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>236900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>147000</v>
+        <v>150900</v>
       </c>
       <c r="E9" s="3">
-        <v>145500</v>
+        <v>147100</v>
       </c>
       <c r="F9" s="3">
-        <v>143900</v>
+        <v>145600</v>
       </c>
       <c r="G9" s="3">
-        <v>123400</v>
+        <v>144000</v>
       </c>
       <c r="H9" s="3">
-        <v>131900</v>
+        <v>123500</v>
       </c>
       <c r="I9" s="3">
-        <v>128500</v>
+        <v>132000</v>
       </c>
       <c r="J9" s="3">
+        <v>128600</v>
+      </c>
+      <c r="K9" s="3">
         <v>117600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>117700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>103000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>108100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>116900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>192500</v>
+        <v>201700</v>
       </c>
       <c r="E10" s="3">
-        <v>167500</v>
+        <v>192600</v>
       </c>
       <c r="F10" s="3">
+        <v>167600</v>
+      </c>
+      <c r="G10" s="3">
         <v>144500</v>
       </c>
-      <c r="G10" s="3">
-        <v>134700</v>
-      </c>
       <c r="H10" s="3">
+        <v>134800</v>
+      </c>
+      <c r="I10" s="3">
         <v>117200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>145700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>149700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>152100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>175300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>177400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>72100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,96 +1040,102 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>15700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>30100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>51600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>311400</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>8300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E15" s="3">
         <v>62500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>61600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>67400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51600</v>
       </c>
-      <c r="H15" s="3">
-        <v>51000</v>
-      </c>
       <c r="I15" s="3">
-        <v>58300</v>
+        <v>51100</v>
       </c>
       <c r="J15" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K15" s="3">
         <v>57200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>57800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>57900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>60100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>56900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>34700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>45100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>56300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>238300</v>
+        <v>232900</v>
       </c>
       <c r="E17" s="3">
-        <v>229900</v>
+        <v>238400</v>
       </c>
       <c r="F17" s="3">
-        <v>248000</v>
+        <v>230000</v>
       </c>
       <c r="G17" s="3">
-        <v>223400</v>
+        <v>248100</v>
       </c>
       <c r="H17" s="3">
-        <v>256800</v>
+        <v>223500</v>
       </c>
       <c r="I17" s="3">
-        <v>207000</v>
+        <v>256900</v>
       </c>
       <c r="J17" s="3">
+        <v>207100</v>
+      </c>
+      <c r="K17" s="3">
         <v>189900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>504000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>201200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>187800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>170100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>183900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E18" s="3">
         <v>101300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>83200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
-        <v>67200</v>
-      </c>
       <c r="J18" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K18" s="3">
         <v>77400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-234200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>101600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>58800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>160000</v>
+        <v>186700</v>
       </c>
       <c r="E21" s="3">
+        <v>160100</v>
+      </c>
+      <c r="F21" s="3">
         <v>132600</v>
       </c>
-      <c r="F21" s="3">
-        <v>113100</v>
-      </c>
       <c r="G21" s="3">
-        <v>92300</v>
+        <v>113200</v>
       </c>
       <c r="H21" s="3">
+        <v>92400</v>
+      </c>
+      <c r="I21" s="3">
         <v>31700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>117200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-181000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>158000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>171000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>170400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E23" s="3">
         <v>97500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>71000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>45800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-238800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>110900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>112000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>32100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>47700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>65300</v>
+        <v>101400</v>
       </c>
       <c r="E26" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F26" s="3">
         <v>54800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-238500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>68200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>88600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>65300</v>
+        <v>101400</v>
       </c>
       <c r="E27" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F27" s="3">
         <v>54800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>39800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-238500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>88600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>65300</v>
+        <v>101400</v>
       </c>
       <c r="E33" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F33" s="3">
         <v>54800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>39800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-238500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>68200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>88600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>65300</v>
+        <v>101400</v>
       </c>
       <c r="E35" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F35" s="3">
         <v>54800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>39800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-238500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>68200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>88600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,308 +2226,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180600</v>
+        <v>254700</v>
       </c>
       <c r="E41" s="3">
-        <v>175200</v>
+        <v>180700</v>
       </c>
       <c r="F41" s="3">
-        <v>157500</v>
+        <v>175300</v>
       </c>
       <c r="G41" s="3">
-        <v>164000</v>
+        <v>157600</v>
       </c>
       <c r="H41" s="3">
-        <v>167700</v>
+        <v>164100</v>
       </c>
       <c r="I41" s="3">
+        <v>167800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>285400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>323400</v>
+      </c>
+      <c r="M41" s="3">
+        <v>317200</v>
+      </c>
+      <c r="N41" s="3">
+        <v>285000</v>
+      </c>
+      <c r="O41" s="3">
+        <v>357500</v>
+      </c>
+      <c r="P41" s="3">
+        <v>256500</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>273500</v>
+      </c>
+      <c r="R41" s="3">
         <v>232900</v>
       </c>
-      <c r="J41" s="3">
-        <v>285400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>323400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>317200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>285000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>357500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>256500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>273500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>232900</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E42" s="3">
         <v>34800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>20700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>35600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>52200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E43" s="3">
         <v>68200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>62000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50000</v>
       </c>
-      <c r="I43" s="3">
-        <v>53700</v>
-      </c>
       <c r="J43" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K43" s="3">
         <v>49100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>339900</v>
+        <v>363300</v>
       </c>
       <c r="E44" s="3">
-        <v>316200</v>
+        <v>340100</v>
       </c>
       <c r="F44" s="3">
-        <v>284300</v>
+        <v>316300</v>
       </c>
       <c r="G44" s="3">
-        <v>293400</v>
+        <v>284500</v>
       </c>
       <c r="H44" s="3">
-        <v>287700</v>
+        <v>293500</v>
       </c>
       <c r="I44" s="3">
-        <v>268700</v>
+        <v>287800</v>
       </c>
       <c r="J44" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K44" s="3">
         <v>250700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>239800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>208700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>177500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>160800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>168100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>161600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>29000</v>
       </c>
-      <c r="H45" s="3">
-        <v>105700</v>
-      </c>
       <c r="I45" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J45" s="3">
         <v>32700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>641500</v>
+        <v>722900</v>
       </c>
       <c r="E46" s="3">
-        <v>595400</v>
+        <v>641900</v>
       </c>
       <c r="F46" s="3">
-        <v>546100</v>
+        <v>595700</v>
       </c>
       <c r="G46" s="3">
-        <v>562000</v>
+        <v>546400</v>
       </c>
       <c r="H46" s="3">
-        <v>640200</v>
+        <v>562300</v>
       </c>
       <c r="I46" s="3">
-        <v>620200</v>
+        <v>640500</v>
       </c>
       <c r="J46" s="3">
+        <v>620500</v>
+      </c>
+      <c r="K46" s="3">
         <v>655600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>683100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>664300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>611800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>666700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>520800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>544700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>502300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4321400</v>
+        <v>4389500</v>
       </c>
       <c r="E48" s="3">
-        <v>4284600</v>
+        <v>4323600</v>
       </c>
       <c r="F48" s="3">
-        <v>4218800</v>
+        <v>4286900</v>
       </c>
       <c r="G48" s="3">
-        <v>4181600</v>
+        <v>4220900</v>
       </c>
       <c r="H48" s="3">
-        <v>4119400</v>
+        <v>4183800</v>
       </c>
       <c r="I48" s="3">
-        <v>4196500</v>
+        <v>4121500</v>
       </c>
       <c r="J48" s="3">
+        <v>4198700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4060300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4095000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4162100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4008100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3965600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3859700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3833800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3736600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80700</v>
+        <v>82300</v>
       </c>
       <c r="E52" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F52" s="3">
         <v>80200</v>
       </c>
-      <c r="F52" s="3">
-        <v>94200</v>
-      </c>
       <c r="G52" s="3">
-        <v>97200</v>
+        <v>94300</v>
       </c>
       <c r="H52" s="3">
-        <v>69900</v>
+        <v>97300</v>
       </c>
       <c r="I52" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J52" s="3">
         <v>72400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>80600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5043600</v>
+        <v>5194700</v>
       </c>
       <c r="E54" s="3">
-        <v>4960200</v>
+        <v>5046200</v>
       </c>
       <c r="F54" s="3">
-        <v>4859100</v>
+        <v>4962700</v>
       </c>
       <c r="G54" s="3">
-        <v>4840800</v>
+        <v>4861600</v>
       </c>
       <c r="H54" s="3">
-        <v>4829500</v>
+        <v>4843300</v>
       </c>
       <c r="I54" s="3">
-        <v>4889000</v>
+        <v>4832000</v>
       </c>
       <c r="J54" s="3">
+        <v>4891600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4791700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4858700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4906900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4699800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4717600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4466000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4463100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4326500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180400</v>
+        <v>185900</v>
       </c>
       <c r="E57" s="3">
-        <v>199300</v>
+        <v>180500</v>
       </c>
       <c r="F57" s="3">
-        <v>179000</v>
+        <v>199400</v>
       </c>
       <c r="G57" s="3">
-        <v>182100</v>
+        <v>179100</v>
       </c>
       <c r="H57" s="3">
-        <v>148600</v>
+        <v>182200</v>
       </c>
       <c r="I57" s="3">
-        <v>185800</v>
+        <v>148700</v>
       </c>
       <c r="J57" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K57" s="3">
         <v>175200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>186100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>154900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>130400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>131700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>150700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2957,131 +3091,140 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>131100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78800</v>
+        <v>100100</v>
       </c>
       <c r="E59" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F59" s="3">
         <v>45800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48100</v>
       </c>
-      <c r="G59" s="3">
-        <v>27900</v>
-      </c>
       <c r="H59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I59" s="3">
         <v>52400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259700</v>
+        <v>286500</v>
       </c>
       <c r="E60" s="3">
-        <v>245600</v>
+        <v>259900</v>
       </c>
       <c r="F60" s="3">
-        <v>227600</v>
+        <v>245700</v>
       </c>
       <c r="G60" s="3">
-        <v>210600</v>
+        <v>227700</v>
       </c>
       <c r="H60" s="3">
-        <v>201600</v>
+        <v>210700</v>
       </c>
       <c r="I60" s="3">
-        <v>212500</v>
+        <v>201700</v>
       </c>
       <c r="J60" s="3">
+        <v>212600</v>
+      </c>
+      <c r="K60" s="3">
         <v>195500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>207100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>189900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>296900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>158200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>162200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3119,69 +3262,75 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>127400</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1045600</v>
+        <v>1055700</v>
       </c>
       <c r="E62" s="3">
-        <v>1041100</v>
+        <v>1046100</v>
       </c>
       <c r="F62" s="3">
-        <v>1021400</v>
+        <v>1041700</v>
       </c>
       <c r="G62" s="3">
-        <v>985100</v>
+        <v>1021900</v>
       </c>
       <c r="H62" s="3">
-        <v>955700</v>
+        <v>985600</v>
       </c>
       <c r="I62" s="3">
-        <v>983500</v>
+        <v>956200</v>
       </c>
       <c r="J62" s="3">
+        <v>984000</v>
+      </c>
+      <c r="K62" s="3">
         <v>921400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>903000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>875000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>824700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>808100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>778900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>791900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>731000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1305300</v>
+        <v>1342200</v>
       </c>
       <c r="E66" s="3">
-        <v>1286700</v>
+        <v>1306000</v>
       </c>
       <c r="F66" s="3">
-        <v>1249000</v>
+        <v>1287400</v>
       </c>
       <c r="G66" s="3">
-        <v>1195700</v>
+        <v>1249700</v>
       </c>
       <c r="H66" s="3">
-        <v>1157200</v>
+        <v>1196300</v>
       </c>
       <c r="I66" s="3">
-        <v>1196000</v>
+        <v>1157800</v>
       </c>
       <c r="J66" s="3">
+        <v>1196600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1116900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1110200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1056100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1014500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1105000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1043000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1077500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>893200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1363500</v>
+        <v>-1274700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1415600</v>
+        <v>-1364200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1457100</v>
+        <v>-1416300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1441900</v>
+        <v>-1457800</v>
       </c>
       <c r="H72" s="3">
-        <v>-1440500</v>
+        <v>-1442700</v>
       </c>
       <c r="I72" s="3">
-        <v>-1415700</v>
+        <v>-1441200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1416500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1444600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1502400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1207900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1238200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3738300</v>
+        <v>3852500</v>
       </c>
       <c r="E76" s="3">
-        <v>3673500</v>
+        <v>3740200</v>
       </c>
       <c r="F76" s="3">
-        <v>3610000</v>
+        <v>3675400</v>
       </c>
       <c r="G76" s="3">
-        <v>3645100</v>
+        <v>3611900</v>
       </c>
       <c r="H76" s="3">
-        <v>3672300</v>
+        <v>3647000</v>
       </c>
       <c r="I76" s="3">
-        <v>3693100</v>
+        <v>3674200</v>
       </c>
       <c r="J76" s="3">
+        <v>3695000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3674800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3748500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3850800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3685300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3612700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3423000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3385600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3433300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>65300</v>
+        <v>101400</v>
       </c>
       <c r="E81" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F81" s="3">
         <v>54800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>39800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-238500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>68200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>88600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E83" s="3">
         <v>62500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51600</v>
       </c>
-      <c r="H83" s="3">
-        <v>51000</v>
-      </c>
       <c r="I83" s="3">
+        <v>51100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>57200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>57800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>57900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="O83" s="3">
         <v>58300</v>
       </c>
-      <c r="J83" s="3">
-        <v>57200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>57800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>57900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>60100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>58300</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>45100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>56300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>127300</v>
+        <v>191500</v>
       </c>
       <c r="E89" s="3">
-        <v>138100</v>
+        <v>127400</v>
       </c>
       <c r="F89" s="3">
-        <v>99900</v>
+        <v>138200</v>
       </c>
       <c r="G89" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H89" s="3">
         <v>102200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62800</v>
       </c>
-      <c r="I89" s="3">
-        <v>118900</v>
-      </c>
       <c r="J89" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K89" s="3">
         <v>111200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>132200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>169800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>170600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>99100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,41 +4615,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-84800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-119000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-89200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-115500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96700</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4437,16 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-92900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-109300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-114500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-114600</v>
-      </c>
       <c r="F94" s="3">
-        <v>-99600</v>
+        <v>-114700</v>
       </c>
       <c r="G94" s="3">
-        <v>-90000</v>
+        <v>-99700</v>
       </c>
       <c r="H94" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-117900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-150300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-114800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-95600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-110400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-150400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-95900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-11900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7000</v>
       </c>
       <c r="O96" s="3">
         <v>-7000</v>
       </c>
       <c r="P96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-5000</v>
       </c>
       <c r="R96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-129000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>121300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-65200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-52500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-69300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>95000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>352500</v>
+        <v>352400</v>
       </c>
       <c r="E8" s="3">
-        <v>339700</v>
+        <v>359000</v>
       </c>
       <c r="F8" s="3">
-        <v>313200</v>
+        <v>345900</v>
       </c>
       <c r="G8" s="3">
-        <v>288500</v>
+        <v>319000</v>
       </c>
       <c r="H8" s="3">
-        <v>258300</v>
+        <v>293800</v>
       </c>
       <c r="I8" s="3">
-        <v>249200</v>
+        <v>263000</v>
       </c>
       <c r="J8" s="3">
+        <v>253800</v>
+      </c>
+      <c r="K8" s="3">
         <v>274300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>267300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>269800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>302900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>292900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>284900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>160800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>225300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>236900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>150900</v>
+        <v>152400</v>
       </c>
       <c r="E9" s="3">
-        <v>147100</v>
+        <v>153600</v>
       </c>
       <c r="F9" s="3">
-        <v>145600</v>
+        <v>149800</v>
       </c>
       <c r="G9" s="3">
-        <v>144000</v>
+        <v>148300</v>
       </c>
       <c r="H9" s="3">
-        <v>123500</v>
+        <v>146600</v>
       </c>
       <c r="I9" s="3">
-        <v>132000</v>
+        <v>125700</v>
       </c>
       <c r="J9" s="3">
+        <v>134400</v>
+      </c>
+      <c r="K9" s="3">
         <v>128600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>117600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>117700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>103000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>88700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>108100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>116900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>201700</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="3">
-        <v>192600</v>
+        <v>205400</v>
       </c>
       <c r="F10" s="3">
-        <v>167600</v>
+        <v>196100</v>
       </c>
       <c r="G10" s="3">
-        <v>144500</v>
+        <v>170700</v>
       </c>
       <c r="H10" s="3">
-        <v>134800</v>
+        <v>147200</v>
       </c>
       <c r="I10" s="3">
+        <v>137300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K10" s="3">
+        <v>145700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>149700</v>
+      </c>
+      <c r="M10" s="3">
+        <v>152100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>175300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>177400</v>
+      </c>
+      <c r="P10" s="3">
+        <v>181800</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>72100</v>
+      </c>
+      <c r="R10" s="3">
         <v>117200</v>
       </c>
-      <c r="J10" s="3">
-        <v>145700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>149700</v>
-      </c>
-      <c r="L10" s="3">
-        <v>152100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>175300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>177400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>181800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>72100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>117200</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>109900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6900</v>
+        <v>10300</v>
       </c>
       <c r="E12" s="3">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="F12" s="3">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="G12" s="3">
-        <v>6300</v>
+        <v>3600</v>
       </c>
       <c r="H12" s="3">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="I12" s="3">
-        <v>5500</v>
+        <v>9600</v>
       </c>
       <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1043,99 +1063,105 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>15700</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>30100</v>
+        <v>16000</v>
       </c>
       <c r="I14" s="3">
-        <v>51600</v>
+        <v>30700</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>311400</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62300</v>
+        <v>64900</v>
       </c>
       <c r="E15" s="3">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="F15" s="3">
-        <v>61600</v>
+        <v>63700</v>
       </c>
       <c r="G15" s="3">
-        <v>67400</v>
+        <v>62700</v>
       </c>
       <c r="H15" s="3">
-        <v>51600</v>
+        <v>68600</v>
       </c>
       <c r="I15" s="3">
-        <v>51100</v>
+        <v>52500</v>
       </c>
       <c r="J15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K15" s="3">
         <v>58400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>57200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>57800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>57900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>60100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>56900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>34700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>45100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>56300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>232900</v>
+        <v>238800</v>
       </c>
       <c r="E17" s="3">
-        <v>238400</v>
+        <v>237100</v>
       </c>
       <c r="F17" s="3">
-        <v>230000</v>
+        <v>242800</v>
       </c>
       <c r="G17" s="3">
-        <v>248100</v>
+        <v>234200</v>
       </c>
       <c r="H17" s="3">
-        <v>223500</v>
+        <v>252700</v>
       </c>
       <c r="I17" s="3">
-        <v>256900</v>
+        <v>227600</v>
       </c>
       <c r="J17" s="3">
+        <v>261600</v>
+      </c>
+      <c r="K17" s="3">
         <v>207100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>189900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>504000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>201200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>187800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>170100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>145400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>183900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>119700</v>
+        <v>113600</v>
       </c>
       <c r="E18" s="3">
-        <v>101300</v>
+        <v>121900</v>
       </c>
       <c r="F18" s="3">
-        <v>83200</v>
+        <v>103200</v>
       </c>
       <c r="G18" s="3">
-        <v>40400</v>
+        <v>84700</v>
       </c>
       <c r="H18" s="3">
-        <v>34700</v>
+        <v>41100</v>
       </c>
       <c r="I18" s="3">
-        <v>-7700</v>
+        <v>35400</v>
       </c>
       <c r="J18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K18" s="3">
         <v>67300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-234200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>101600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>114800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4700</v>
+        <v>-6100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3800</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="3">
-        <v>-12200</v>
+        <v>-3900</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>-12400</v>
       </c>
       <c r="H20" s="3">
-        <v>6100</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
-        <v>-11600</v>
+        <v>6200</v>
       </c>
       <c r="J20" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>186700</v>
+        <v>172500</v>
       </c>
       <c r="E21" s="3">
-        <v>160100</v>
+        <v>190100</v>
       </c>
       <c r="F21" s="3">
-        <v>132600</v>
+        <v>163000</v>
       </c>
       <c r="G21" s="3">
-        <v>113200</v>
+        <v>135100</v>
       </c>
       <c r="H21" s="3">
-        <v>92400</v>
+        <v>115300</v>
       </c>
       <c r="I21" s="3">
-        <v>31700</v>
+        <v>94100</v>
       </c>
       <c r="J21" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K21" s="3">
         <v>117200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-181000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>171000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>170400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>112100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>124400</v>
+        <v>107600</v>
       </c>
       <c r="E23" s="3">
-        <v>97500</v>
+        <v>126700</v>
       </c>
       <c r="F23" s="3">
-        <v>71000</v>
+        <v>99300</v>
       </c>
       <c r="G23" s="3">
-        <v>45800</v>
+        <v>72400</v>
       </c>
       <c r="H23" s="3">
-        <v>40800</v>
+        <v>46600</v>
       </c>
       <c r="I23" s="3">
-        <v>-19300</v>
+        <v>41500</v>
       </c>
       <c r="J23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K23" s="3">
         <v>58900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-238800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>110900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>112000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23000</v>
+        <v>53400</v>
       </c>
       <c r="E24" s="3">
-        <v>32100</v>
+        <v>23400</v>
       </c>
       <c r="F24" s="3">
-        <v>16200</v>
+        <v>32700</v>
       </c>
       <c r="G24" s="3">
-        <v>47700</v>
+        <v>16500</v>
       </c>
       <c r="H24" s="3">
-        <v>32100</v>
+        <v>48600</v>
       </c>
       <c r="I24" s="3">
-        <v>-7800</v>
+        <v>32700</v>
       </c>
       <c r="J24" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K24" s="3">
         <v>19000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>101400</v>
+        <v>54200</v>
       </c>
       <c r="E26" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="F26" s="3">
-        <v>54800</v>
+        <v>66600</v>
       </c>
       <c r="G26" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
-        <v>8600</v>
-      </c>
       <c r="I26" s="3">
-        <v>-11500</v>
+        <v>8800</v>
       </c>
       <c r="J26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K26" s="3">
         <v>39800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-238500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>88600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101400</v>
+        <v>54200</v>
       </c>
       <c r="E27" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="F27" s="3">
-        <v>54800</v>
+        <v>66600</v>
       </c>
       <c r="G27" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
-        <v>8600</v>
-      </c>
       <c r="I27" s="3">
-        <v>-11500</v>
+        <v>8800</v>
       </c>
       <c r="J27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K27" s="3">
         <v>39800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-238500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>88600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4700</v>
+        <v>6100</v>
       </c>
       <c r="E32" s="3">
-        <v>3800</v>
+        <v>-4800</v>
       </c>
       <c r="F32" s="3">
-        <v>12200</v>
+        <v>3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6100</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
-        <v>11600</v>
+        <v>-6200</v>
       </c>
       <c r="J32" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K32" s="3">
         <v>8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101400</v>
+        <v>54200</v>
       </c>
       <c r="E33" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="F33" s="3">
-        <v>54800</v>
+        <v>66600</v>
       </c>
       <c r="G33" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
-        <v>8600</v>
-      </c>
       <c r="I33" s="3">
-        <v>-11500</v>
+        <v>8800</v>
       </c>
       <c r="J33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K33" s="3">
         <v>39800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-238500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>68200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>88600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101400</v>
+        <v>54200</v>
       </c>
       <c r="E35" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="F35" s="3">
-        <v>54800</v>
+        <v>66600</v>
       </c>
       <c r="G35" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
-        <v>8600</v>
-      </c>
       <c r="I35" s="3">
-        <v>-11500</v>
+        <v>8800</v>
       </c>
       <c r="J35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K35" s="3">
         <v>39800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-238500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>68200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>88600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,326 +2313,345 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>254700</v>
+        <v>297000</v>
       </c>
       <c r="E41" s="3">
-        <v>180700</v>
+        <v>259400</v>
       </c>
       <c r="F41" s="3">
-        <v>175300</v>
+        <v>184000</v>
       </c>
       <c r="G41" s="3">
-        <v>157600</v>
+        <v>178500</v>
       </c>
       <c r="H41" s="3">
-        <v>164100</v>
+        <v>160500</v>
       </c>
       <c r="I41" s="3">
-        <v>167800</v>
+        <v>167100</v>
       </c>
       <c r="J41" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K41" s="3">
         <v>233000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>285400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>323400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>317200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>357500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>256500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>273500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>232900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>238100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26600</v>
+        <v>19300</v>
       </c>
       <c r="E42" s="3">
-        <v>34800</v>
+        <v>27100</v>
       </c>
       <c r="F42" s="3">
-        <v>25100</v>
+        <v>35500</v>
       </c>
       <c r="G42" s="3">
-        <v>20700</v>
+        <v>25600</v>
       </c>
       <c r="H42" s="3">
-        <v>30400</v>
+        <v>21000</v>
       </c>
       <c r="I42" s="3">
-        <v>29200</v>
+        <v>30900</v>
       </c>
       <c r="J42" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K42" s="3">
         <v>32300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>56500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>52200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>49000</v>
+        <v>63100</v>
       </c>
       <c r="E43" s="3">
-        <v>68200</v>
+        <v>49900</v>
       </c>
       <c r="F43" s="3">
-        <v>50200</v>
+        <v>69500</v>
       </c>
       <c r="G43" s="3">
-        <v>62000</v>
+        <v>51200</v>
       </c>
       <c r="H43" s="3">
-        <v>45200</v>
+        <v>63100</v>
       </c>
       <c r="I43" s="3">
-        <v>50000</v>
+        <v>46100</v>
       </c>
       <c r="J43" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K43" s="3">
         <v>53800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>44100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>46900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>363300</v>
+        <v>371200</v>
       </c>
       <c r="E44" s="3">
-        <v>340100</v>
+        <v>370000</v>
       </c>
       <c r="F44" s="3">
-        <v>316300</v>
+        <v>346400</v>
       </c>
       <c r="G44" s="3">
-        <v>284500</v>
+        <v>322100</v>
       </c>
       <c r="H44" s="3">
-        <v>293500</v>
+        <v>289700</v>
       </c>
       <c r="I44" s="3">
-        <v>287800</v>
+        <v>298900</v>
       </c>
       <c r="J44" s="3">
+        <v>293100</v>
+      </c>
+      <c r="K44" s="3">
         <v>268800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>250700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>239800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>208700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>177500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>160800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>168100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>161600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>158800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G45" s="3">
         <v>29200</v>
       </c>
-      <c r="E45" s="3">
-        <v>18000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>28600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>21600</v>
-      </c>
       <c r="H45" s="3">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="I45" s="3">
-        <v>105800</v>
+        <v>29600</v>
       </c>
       <c r="J45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K45" s="3">
         <v>32700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>59000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>722900</v>
+        <v>769500</v>
       </c>
       <c r="E46" s="3">
-        <v>641900</v>
+        <v>736200</v>
       </c>
       <c r="F46" s="3">
-        <v>595700</v>
+        <v>653600</v>
       </c>
       <c r="G46" s="3">
-        <v>546400</v>
+        <v>606600</v>
       </c>
       <c r="H46" s="3">
-        <v>562300</v>
+        <v>556400</v>
       </c>
       <c r="I46" s="3">
-        <v>640500</v>
+        <v>572600</v>
       </c>
       <c r="J46" s="3">
+        <v>652300</v>
+      </c>
+      <c r="K46" s="3">
         <v>620500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>655600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>683100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>664300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>611800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>666700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>520800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>544700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>502300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>484200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4389500</v>
+        <v>4530300</v>
       </c>
       <c r="E48" s="3">
-        <v>4323600</v>
+        <v>4470100</v>
       </c>
       <c r="F48" s="3">
-        <v>4286900</v>
+        <v>4403000</v>
       </c>
       <c r="G48" s="3">
-        <v>4220900</v>
+        <v>4365600</v>
       </c>
       <c r="H48" s="3">
-        <v>4183800</v>
+        <v>4298400</v>
       </c>
       <c r="I48" s="3">
-        <v>4121500</v>
+        <v>4260600</v>
       </c>
       <c r="J48" s="3">
+        <v>4197200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4198700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4060300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4095000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4162100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4008100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3965600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3859700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3833800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3736600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3695000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>83800</v>
+      </c>
+      <c r="F52" s="3">
         <v>82300</v>
       </c>
-      <c r="E52" s="3">
-        <v>80800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>80200</v>
-      </c>
       <c r="G52" s="3">
-        <v>94300</v>
+        <v>81700</v>
       </c>
       <c r="H52" s="3">
-        <v>97300</v>
+        <v>96000</v>
       </c>
       <c r="I52" s="3">
-        <v>70000</v>
+        <v>99000</v>
       </c>
       <c r="J52" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K52" s="3">
         <v>72400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>87600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5194700</v>
+        <v>5378500</v>
       </c>
       <c r="E54" s="3">
-        <v>5046200</v>
+        <v>5290000</v>
       </c>
       <c r="F54" s="3">
-        <v>4962700</v>
+        <v>5138900</v>
       </c>
       <c r="G54" s="3">
-        <v>4861600</v>
+        <v>5053900</v>
       </c>
       <c r="H54" s="3">
-        <v>4843300</v>
+        <v>4950800</v>
       </c>
       <c r="I54" s="3">
-        <v>4832000</v>
+        <v>4932300</v>
       </c>
       <c r="J54" s="3">
+        <v>4920700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4891600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4791700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4858700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4906900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4699800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4717600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4466000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4463100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4326500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4272500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,220 +3141,233 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>189300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>183800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>203000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>182400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>185600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K57" s="3">
         <v>185900</v>
       </c>
-      <c r="E57" s="3">
-        <v>180500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>199400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>179100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>182200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>148700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>185900</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>175200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>186100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>154900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>130400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>131700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>150700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>122200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>131100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100100</v>
+        <v>118400</v>
       </c>
       <c r="E59" s="3">
-        <v>78900</v>
+        <v>101900</v>
       </c>
       <c r="F59" s="3">
-        <v>45800</v>
+        <v>80300</v>
       </c>
       <c r="G59" s="3">
-        <v>48100</v>
+        <v>46600</v>
       </c>
       <c r="H59" s="3">
-        <v>28000</v>
+        <v>49000</v>
       </c>
       <c r="I59" s="3">
-        <v>52400</v>
+        <v>28500</v>
       </c>
       <c r="J59" s="3">
+        <v>53400</v>
+      </c>
+      <c r="K59" s="3">
         <v>26200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>286500</v>
+        <v>313300</v>
       </c>
       <c r="E60" s="3">
-        <v>259900</v>
+        <v>291700</v>
       </c>
       <c r="F60" s="3">
-        <v>245700</v>
+        <v>264600</v>
       </c>
       <c r="G60" s="3">
-        <v>227700</v>
+        <v>250200</v>
       </c>
       <c r="H60" s="3">
-        <v>210700</v>
+        <v>231900</v>
       </c>
       <c r="I60" s="3">
-        <v>201700</v>
+        <v>214600</v>
       </c>
       <c r="J60" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K60" s="3">
         <v>212600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>195500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>207100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>181100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>189900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>296900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>136700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>158200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>162200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>158500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3265,72 +3408,78 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>127400</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>127400</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>127400</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1055700</v>
+        <v>1108500</v>
       </c>
       <c r="E62" s="3">
-        <v>1046100</v>
+        <v>1075100</v>
       </c>
       <c r="F62" s="3">
-        <v>1041700</v>
+        <v>1065300</v>
       </c>
       <c r="G62" s="3">
-        <v>1021900</v>
+        <v>1060800</v>
       </c>
       <c r="H62" s="3">
-        <v>985600</v>
+        <v>1040700</v>
       </c>
       <c r="I62" s="3">
-        <v>956200</v>
+        <v>1003700</v>
       </c>
       <c r="J62" s="3">
+        <v>973700</v>
+      </c>
+      <c r="K62" s="3">
         <v>984000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>921400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>903000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>875000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>824700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>808100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>778900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>791900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>731000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>705600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1342200</v>
+        <v>1421900</v>
       </c>
       <c r="E66" s="3">
-        <v>1306000</v>
+        <v>1366800</v>
       </c>
       <c r="F66" s="3">
-        <v>1287400</v>
+        <v>1330000</v>
       </c>
       <c r="G66" s="3">
-        <v>1249700</v>
+        <v>1311000</v>
       </c>
       <c r="H66" s="3">
-        <v>1196300</v>
+        <v>1272600</v>
       </c>
       <c r="I66" s="3">
-        <v>1157800</v>
+        <v>1218300</v>
       </c>
       <c r="J66" s="3">
+        <v>1179100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1196600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1116900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1110200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1056100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1014500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1105000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1043000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1077500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>893200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>864100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1274700</v>
+        <v>-1257300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1364200</v>
+        <v>-1298100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1416300</v>
+        <v>-1389300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1457800</v>
+        <v>-1442300</v>
       </c>
       <c r="H72" s="3">
-        <v>-1442700</v>
+        <v>-1484600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1441200</v>
+        <v>-1469200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1467700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1416500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1444600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1502400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1207900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1238200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1347600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1396300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1406100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1386500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1441400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3852500</v>
+        <v>3956600</v>
       </c>
       <c r="E76" s="3">
-        <v>3740200</v>
+        <v>3923200</v>
       </c>
       <c r="F76" s="3">
-        <v>3675400</v>
+        <v>3808900</v>
       </c>
       <c r="G76" s="3">
-        <v>3611900</v>
+        <v>3742900</v>
       </c>
       <c r="H76" s="3">
-        <v>3647000</v>
+        <v>3678200</v>
       </c>
       <c r="I76" s="3">
-        <v>3674200</v>
+        <v>3714000</v>
       </c>
       <c r="J76" s="3">
+        <v>3741600</v>
+      </c>
+      <c r="K76" s="3">
         <v>3695000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3674800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3748500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3850800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3685300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3612700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3423000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3385600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3433300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3408400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101400</v>
+        <v>54200</v>
       </c>
       <c r="E81" s="3">
-        <v>65400</v>
+        <v>103300</v>
       </c>
       <c r="F81" s="3">
-        <v>54800</v>
+        <v>66600</v>
       </c>
       <c r="G81" s="3">
+        <v>55800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
-        <v>8600</v>
-      </c>
       <c r="I81" s="3">
-        <v>-11500</v>
+        <v>8800</v>
       </c>
       <c r="J81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K81" s="3">
         <v>39800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-238500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>68200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>88600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62300</v>
+        <v>64900</v>
       </c>
       <c r="E83" s="3">
-        <v>62500</v>
+        <v>63400</v>
       </c>
       <c r="F83" s="3">
-        <v>61600</v>
+        <v>63700</v>
       </c>
       <c r="G83" s="3">
-        <v>67400</v>
+        <v>62700</v>
       </c>
       <c r="H83" s="3">
-        <v>51600</v>
+        <v>68600</v>
       </c>
       <c r="I83" s="3">
-        <v>51100</v>
+        <v>52500</v>
       </c>
       <c r="J83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K83" s="3">
         <v>58400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>57800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>60100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>58300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>56300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191500</v>
+        <v>154700</v>
       </c>
       <c r="E89" s="3">
-        <v>127400</v>
+        <v>195000</v>
       </c>
       <c r="F89" s="3">
-        <v>138200</v>
+        <v>129700</v>
       </c>
       <c r="G89" s="3">
-        <v>100000</v>
+        <v>140700</v>
       </c>
       <c r="H89" s="3">
-        <v>102200</v>
+        <v>101800</v>
       </c>
       <c r="I89" s="3">
-        <v>62800</v>
+        <v>104100</v>
       </c>
       <c r="J89" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K89" s="3">
         <v>119000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>111200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>132200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>169800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>170600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>63200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>99100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,44 +4836,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-80200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-83800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-84800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-72600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-87300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-119000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-89200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-115500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-96700</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-69800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-92900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-85000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-109300</v>
+        <v>-105000</v>
       </c>
       <c r="E94" s="3">
-        <v>-114500</v>
+        <v>-111300</v>
       </c>
       <c r="F94" s="3">
-        <v>-114700</v>
+        <v>-116600</v>
       </c>
       <c r="G94" s="3">
-        <v>-99700</v>
+        <v>-116800</v>
       </c>
       <c r="H94" s="3">
-        <v>-90100</v>
+        <v>-101500</v>
       </c>
       <c r="I94" s="3">
-        <v>-117900</v>
+        <v>-91700</v>
       </c>
       <c r="J94" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-150300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-122900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-114800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-95600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-110400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-150400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-95900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="E96" s="3">
-        <v>-12400</v>
+        <v>-12100</v>
       </c>
       <c r="F96" s="3">
-        <v>-11900</v>
+        <v>-12700</v>
       </c>
       <c r="G96" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="H96" s="3">
         <v>-12000</v>
       </c>
       <c r="I96" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="J96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9600</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-7000</v>
       </c>
       <c r="P96" s="3">
         <v>-7000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-5000</v>
       </c>
       <c r="S96" s="3">
         <v>-5000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-11100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7600</v>
+        <v>-9200</v>
       </c>
       <c r="F100" s="3">
-        <v>-6800</v>
+        <v>-7700</v>
       </c>
       <c r="G100" s="3">
-        <v>-5500</v>
+        <v>-6900</v>
       </c>
       <c r="H100" s="3">
-        <v>-15300</v>
+        <v>-5600</v>
       </c>
       <c r="I100" s="3">
-        <v>-10800</v>
+        <v>-15500</v>
       </c>
       <c r="J100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-20900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-129000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>121300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>900</v>
-      </c>
       <c r="G101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S101" s="3">
+        <v>600</v>
+      </c>
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
-      <c r="P101" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>600</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>74000</v>
+        <v>37600</v>
       </c>
       <c r="E102" s="3">
-        <v>5400</v>
+        <v>75400</v>
       </c>
       <c r="F102" s="3">
-        <v>17700</v>
+        <v>5500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6500</v>
+        <v>18000</v>
       </c>
       <c r="H102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-66400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N102" s="3">
+        <v>23600</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="P102" s="3">
+        <v>95000</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>40600</v>
+      </c>
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="I102" s="3">
-        <v>-65200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-52500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-30400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>23600</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-69300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>95000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>40600</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
     </row>
